--- a/document/Foreservation_ViewList.xlsx
+++ b/document/Foreservation_ViewList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72604A19-C054-449B-BE1B-8DDAF87405F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA240E0-BC87-4F16-96E9-627E98149B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-252" yWindow="2016" windowWidth="13488" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="287">
   <si>
     <t>OBJECT</t>
   </si>
@@ -597,10 +597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>programInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Foreservation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -996,6 +992,26 @@
   </si>
   <si>
     <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomNav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProgramNav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProgramInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1136,9 +1152,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1148,23 +1161,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1505,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF753CA-3B43-42CB-99AB-2EC6963C2F06}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1523,568 +1539,567 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="6" t="str">
+      <c r="D2" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="5" t="str">
         <f>D2&amp;".jsp"</f>
         <v>ResrvNav.jsp</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f t="shared" ref="E3" si="0">D3&amp;".jsp"</f>
+        <v>SiteNav.jsp</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f>D4&amp;".jsp"</f>
+        <v>RoomNav.jsp</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="6" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="5"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f>D5&amp;".jsp"</f>
+        <v>ProgramNav.jsp</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E3" s="6" t="str">
-        <f t="shared" ref="E3:E66" si="0">D3&amp;".jsp"</f>
-        <v>SiteNav.jsp</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="E6" s="5" t="str">
+        <f t="shared" ref="E6:E68" si="1">D6&amp;".jsp"</f>
         <v>MyNav.jsp</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="6">
+      <c r="F6" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="6" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Futter.jsp</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>ForeservationInfo.jsp</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>SiteInfo.jsp</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>RoomInfo.jsp</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>ProgramInfo.jsp</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Login.jsp</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Futter.jsp</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acnt_RegAgr.jsp</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acnt_RegChk.jsp</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acnt_RegInfo.jsp</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="5">
+        <v>19</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acnt_RegCom.jsp</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="5">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>ForeservationInfo.jsp</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>SiteInfo.jsp</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>RoomInfo.jsp</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="D23" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>programInfo.jsp</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Login.jsp</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Acnt_RegAgr.jsp</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Acnt_RegChk.jsp</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Acnt_RegInfo.jsp</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E20" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Acnt_RegCom.jsp</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="E23" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>Foreservation.jsp</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="12"/>
+      <c r="A24" s="5">
+        <v>21</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="5">
+        <v>22</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="11"/>
       <c r="F25" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>GnrSrch.jsp</v>
-      </c>
+      <c r="A26" s="5">
+        <v>23</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="3" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="A27" s="5">
+        <v>24</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="12"/>
       <c r="F27" s="3" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="12"/>
+      <c r="A28" s="5">
+        <v>25</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>GnrSrch.jsp</v>
+      </c>
       <c r="F28" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="12"/>
+      <c r="A29" s="5">
+        <v>26</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13" t="s">
-        <v>195</v>
+      <c r="A30" s="5">
+        <v>27</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="A31" s="5">
+        <v>28</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="11"/>
       <c r="F31" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E32" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MonthSrch.jsp</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>187</v>
+      <c r="A32" s="5">
+        <v>29</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="6">
-        <v>32</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="A33" s="5">
+        <v>30</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="12"/>
       <c r="F33" s="3" t="s">
         <v>188</v>
@@ -2093,234 +2108,241 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="6">
-        <v>33</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="11"/>
+      <c r="A34" s="5">
+        <v>31</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>MonthSrch.jsp</v>
+      </c>
       <c r="F34" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="6">
-        <v>34</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>GnrResrv.jsp</v>
-      </c>
+      <c r="A35" s="5">
+        <v>32</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="3" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="6">
-        <v>35</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="A36" s="5">
+        <v>33</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="12"/>
       <c r="F36" s="3" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="6">
-        <v>36</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="12"/>
+      <c r="A37" s="5">
+        <v>34</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>GnrResrv.jsp</v>
+      </c>
       <c r="F37" s="3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="6">
-        <v>37</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="12"/>
+      <c r="A38" s="5">
+        <v>35</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="6">
-        <v>38</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13" t="s">
-        <v>219</v>
+      <c r="A39" s="5">
+        <v>36</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="6">
-        <v>39</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="A40" s="5">
+        <v>37</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
       <c r="E40" s="11"/>
       <c r="F40" s="3" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="G40" s="3"/>
-      <c r="H40" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="6">
-        <v>40</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E41" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>PrgmSrch.jsp</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>187</v>
+      <c r="A41" s="5">
+        <v>38</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="6">
-        <v>41</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="A42" s="5">
+        <v>39</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
       <c r="E42" s="12"/>
       <c r="F42" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G42" s="3"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="6">
-        <v>42</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="12"/>
+      <c r="A43" s="5">
+        <v>40</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>PrgmSrch.jsp</v>
+      </c>
       <c r="F43" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="6">
-        <v>43</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="12"/>
+      <c r="A44" s="5">
+        <v>41</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="6">
-        <v>44</v>
-      </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="A45" s="5">
+        <v>42</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="13" t="s">
-        <v>194</v>
+      <c r="F45" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="6">
-        <v>45</v>
-      </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>PrgmResrv.jsp</v>
-      </c>
+      <c r="A46" s="5">
+        <v>43</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="3" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="6">
-        <v>46</v>
-      </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="A47" s="5">
+        <v>44</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
       <c r="E47" s="12"/>
-      <c r="F47" s="3" t="s">
-        <v>220</v>
+      <c r="F47" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="6">
-        <v>47</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="12"/>
+      <c r="A48" s="5">
+        <v>45</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>PrgmResrv.jsp</v>
+      </c>
       <c r="F48" s="3" t="s">
         <v>221</v>
       </c>
@@ -2328,620 +2350,648 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="6">
-        <v>48</v>
-      </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="12"/>
+      <c r="A49" s="5">
+        <v>46</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="6">
-        <v>49</v>
-      </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="A50" s="5">
+        <v>47</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
       <c r="E50" s="11"/>
       <c r="F50" s="3" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="G50" s="3"/>
-      <c r="H50" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="6">
-        <v>50</v>
-      </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E51" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>PayInfo.jsp</v>
-      </c>
+      <c r="A51" s="5">
+        <v>48</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="6">
-        <v>51</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="A52" s="5">
+        <v>49</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
       <c r="E52" s="12"/>
       <c r="F52" s="3" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="G52" s="3"/>
-      <c r="H52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="6">
-        <v>52</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="12"/>
+      <c r="A53" s="5">
+        <v>50</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>PayInfo.jsp</v>
+      </c>
       <c r="F53" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" s="6">
-        <v>53</v>
-      </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="12"/>
+      <c r="A54" s="5">
+        <v>51</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" s="6">
-        <v>54</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="A55" s="5">
+        <v>52</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
       <c r="E55" s="11"/>
       <c r="F55" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A56" s="6">
-        <v>55</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E56" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PayCmplt.jsp</v>
-      </c>
+      <c r="A56" s="5">
+        <v>53</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" s="6">
-        <v>56</v>
-      </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="5" t="s">
+      <c r="A57" s="5">
+        <v>54</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E57" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Mypage.jsp</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" s="6">
-        <v>57</v>
-      </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="12"/>
+      <c r="A58" s="5">
+        <v>55</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>PayCmplt.jsp</v>
+      </c>
       <c r="F58" s="3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="6">
-        <v>58</v>
-      </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="12"/>
+      <c r="A59" s="5">
+        <v>56</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>Mypage.jsp</v>
+      </c>
       <c r="F59" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" s="6">
-        <v>59</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="12"/>
+      <c r="A60" s="5">
+        <v>57</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="11"/>
       <c r="F60" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" s="6">
-        <v>60</v>
-      </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="A61" s="5">
+        <v>58</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
       <c r="E61" s="11"/>
       <c r="F61" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" s="6">
-        <v>61</v>
-      </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E62" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MyResrv.jsp</v>
-      </c>
+      <c r="A62" s="5">
+        <v>59</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="11"/>
       <c r="F62" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" s="6">
-        <v>62</v>
-      </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="A63" s="5">
+        <v>60</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
       <c r="E63" s="12"/>
       <c r="F63" s="3" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" s="6">
-        <v>63</v>
-      </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="12"/>
+      <c r="A64" s="5">
+        <v>61</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E64" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>MyResrv.jsp</v>
+      </c>
       <c r="F64" s="3" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A65" s="6">
-        <v>64</v>
-      </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="A65" s="5">
+        <v>62</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
       <c r="E65" s="11"/>
       <c r="F65" s="3" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A66" s="6">
-        <v>65</v>
-      </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E66" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>ResrvCancle.jsp</v>
-      </c>
+      <c r="A66" s="5">
+        <v>63</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="3" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A67" s="6">
-        <v>66</v>
-      </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="11"/>
+      <c r="A67" s="5">
+        <v>64</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="12"/>
       <c r="F67" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A68" s="6">
-        <v>67</v>
-      </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>259</v>
+      <c r="A68" s="5">
+        <v>65</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>250</v>
       </c>
       <c r="E68" s="10" t="str">
-        <f t="shared" ref="E67:E82" si="1">D68&amp;".jsp"</f>
-        <v>ResrvInfo.jsp</v>
+        <f t="shared" si="1"/>
+        <v>ResrvCancle.jsp</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A69" s="6">
-        <v>68</v>
-      </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="A69" s="5">
+        <v>66</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
       <c r="E69" s="12"/>
       <c r="F69" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A70" s="6">
-        <v>69</v>
-      </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="12"/>
+      <c r="A70" s="5">
+        <v>67</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E70" s="10" t="str">
+        <f t="shared" ref="E70:E84" si="2">D70&amp;".jsp"</f>
+        <v>ResrvInfo.jsp</v>
+      </c>
       <c r="F70" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A71" s="6">
-        <v>70</v>
-      </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
+      <c r="A71" s="5">
+        <v>68</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
       <c r="E71" s="11"/>
       <c r="F71" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" s="6">
-        <v>71</v>
-      </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E72" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>JimList.jsp</v>
-      </c>
+      <c r="A72" s="5">
+        <v>69</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A73" s="6">
-        <v>72</v>
-      </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E73" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>MyQnalist.jsp</v>
-      </c>
+      <c r="A73" s="5">
+        <v>70</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="12"/>
       <c r="F73" s="3" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A74" s="6">
-        <v>73</v>
-      </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="12"/>
+      <c r="A74" s="5">
+        <v>71</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E74" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>JimList.jsp</v>
+      </c>
       <c r="F74" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A75" s="6">
-        <v>74</v>
-      </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="11"/>
+      <c r="A75" s="5">
+        <v>72</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E75" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>MyQnalist.jsp</v>
+      </c>
       <c r="F75" s="3" t="s">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A76" s="6">
-        <v>75</v>
-      </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E76" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>QnaReg.jsp</v>
-      </c>
+      <c r="A76" s="5">
+        <v>73</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="11"/>
       <c r="F76" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A77" s="6">
-        <v>76</v>
-      </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="11"/>
+      <c r="A77" s="5">
+        <v>74</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="12"/>
       <c r="F77" s="3" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A78" s="6">
-        <v>77</v>
-      </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E78" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>MyInfo.jsp</v>
+      <c r="A78" s="5">
+        <v>75</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E78" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>QnaReg.jsp</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A79" s="6">
-        <v>78</v>
-      </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E79" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>MyInfoEdit.jsp</v>
-      </c>
+      <c r="A79" s="5">
+        <v>76</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="12"/>
       <c r="F79" s="3" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A80" s="6">
-        <v>79</v>
-      </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="12"/>
+      <c r="A80" s="5">
+        <v>77</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E80" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>MyInfo.jsp</v>
+      </c>
       <c r="F80" s="3" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A81" s="6">
-        <v>80</v>
-      </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="11"/>
+      <c r="A81" s="5">
+        <v>78</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E81" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>MyInfoEdit.jsp</v>
+      </c>
       <c r="F81" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A82" s="6">
-        <v>81</v>
+      <c r="A82" s="5">
+        <v>79</v>
       </c>
       <c r="B82" s="11"/>
-      <c r="C82" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E82" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>MyWidrw.jsp</v>
-      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="11"/>
       <c r="F82" s="3" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="1"/>
     </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A83" s="5">
+        <v>80</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A84" s="5">
+        <v>81</v>
+      </c>
+      <c r="B84" s="12"/>
+      <c r="C84" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E84" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>MyWidrw.jsp</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="E46:E50"/>
-    <mergeCell ref="E51:E55"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B2:B82"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="E41:E45"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="D46:D50"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="B2:B84"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E73"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2956,7 +3006,7 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
@@ -2966,12 +3016,12 @@
     <col min="8" max="8" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2997,7 +3047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3023,7 +3073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3049,17 +3099,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -3085,7 +3135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3111,7 +3161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3137,17 +3187,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -3173,7 +3223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -3199,7 +3249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3225,17 +3275,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -3261,7 +3311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -3287,7 +3337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3313,7 +3363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3339,7 +3389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3365,7 +3415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -3391,7 +3441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -3417,7 +3467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3443,7 +3493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -3469,7 +3519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -3495,7 +3545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -3521,17 +3571,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -3557,7 +3607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -3583,7 +3633,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -3609,17 +3659,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -3645,7 +3695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -3671,7 +3721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -3697,7 +3747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -3723,17 +3773,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -3759,7 +3809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -3785,7 +3835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -3811,7 +3861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -3837,7 +3887,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -3863,7 +3913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -3889,7 +3939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -3915,7 +3965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -3941,7 +3991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -3967,17 +4017,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -4003,7 +4053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -4029,7 +4079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -4055,7 +4105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -4081,7 +4131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -4107,7 +4157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -4133,7 +4183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -4159,7 +4209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -4185,17 +4235,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -4221,7 +4271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -4247,7 +4297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -4273,7 +4323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -4299,7 +4349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -4325,7 +4375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -4351,7 +4401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -4377,7 +4427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -4403,7 +4453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -4429,7 +4479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -4455,17 +4505,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -4491,7 +4541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -4517,7 +4567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>69</v>
       </c>
@@ -4543,7 +4593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -4569,7 +4619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -4595,7 +4645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -4621,7 +4671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -4647,7 +4697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -4673,7 +4723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -4699,7 +4749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -4725,17 +4775,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -4761,7 +4811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -4787,7 +4837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -4813,17 +4863,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -4849,7 +4899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>69</v>
       </c>
@@ -4875,7 +4925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>69</v>
       </c>
@@ -4901,7 +4951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -4927,7 +4977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -4953,7 +5003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -4979,7 +5029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -5005,7 +5055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -5031,7 +5081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -5057,7 +5107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -5083,7 +5133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -5109,7 +5159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -5135,17 +5185,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -5171,7 +5221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>69</v>
       </c>
@@ -5197,7 +5247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>69</v>
       </c>
@@ -5223,7 +5273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -5249,17 +5299,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -5285,7 +5335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>69</v>
       </c>
@@ -5311,7 +5361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>69</v>
       </c>
@@ -5337,7 +5387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -5363,7 +5413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -5389,7 +5439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -5415,7 +5465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -5441,17 +5491,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -5477,7 +5527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -5503,7 +5553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -5529,17 +5579,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -5565,7 +5615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>69</v>
       </c>
@@ -5591,7 +5641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -5617,7 +5667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -5643,7 +5693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>164</v>
       </c>
@@ -5669,7 +5719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>164</v>
       </c>
@@ -5695,7 +5745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -5721,7 +5771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>12</v>
       </c>

--- a/document/Foreservation_ViewList.xlsx
+++ b/document/Foreservation_ViewList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA240E0-BC87-4F16-96E9-627E98149B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A18D5EB-AC16-4F02-A40B-7D8BAA78379C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-252" yWindow="2016" windowWidth="13488" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="289">
   <si>
     <t>OBJECT</t>
   </si>
@@ -672,10 +672,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Futter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Acnt_RegAgr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -815,18 +811,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ResrvNav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SiteNav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyNav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mypage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -999,19 +983,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RoomNav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로그램안내</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProgramNav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ProgramInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Footer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavResrv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavSite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavProgram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavMy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1060,7 +1068,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1070,6 +1078,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,7 +1152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1167,6 +1181,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1176,10 +1196,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1521,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF753CA-3B43-42CB-99AB-2EC6963C2F06}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1540,22 +1566,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>167</v>
@@ -1565,1433 +1591,1288 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>176</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" s="5" t="str">
+        <v>285</v>
+      </c>
+      <c r="E2" s="18" t="str">
         <f>D2&amp;".jsp"</f>
-        <v>ResrvNav.jsp</v>
+        <v>NavMain.jsp</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="5" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f t="shared" ref="E3" si="0">D3&amp;".jsp"</f>
-        <v>SiteNav.jsp</v>
+        <f>D3&amp;".jsp"</f>
+        <v>NavResrv.jsp</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="E4" s="5" t="str">
-        <f>D4&amp;".jsp"</f>
-        <v>RoomNav.jsp</v>
+      <c r="E4" s="18" t="str">
+        <f t="shared" ref="E4" si="0">D4&amp;".jsp"</f>
+        <v>NavSite.jsp</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>D5&amp;".jsp"</f>
-        <v>ProgramNav.jsp</v>
+        <v>NavRoom.jsp</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="E6" s="5" t="str">
-        <f t="shared" ref="E6:E68" si="1">D6&amp;".jsp"</f>
-        <v>MyNav.jsp</v>
+        <f>D6&amp;".jsp"</f>
+        <v>NavProgram.jsp</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="5" t="s">
-        <v>174</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="5" t="s">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c r="E7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Futter.jsp</v>
-      </c>
-      <c r="F7" s="9"/>
+        <f t="shared" ref="E7:E69" si="1">D7&amp;".jsp"</f>
+        <v>NavMy.jsp</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Footer.jsp</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="5"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="10" t="str">
+      <c r="E9" s="15" t="str">
         <f t="shared" si="1"/>
         <v>ForeservationInfo.jsp</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="5"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="5" t="str">
+      <c r="E12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>SiteInfo.jsp</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>RoomInfo.jsp</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="11"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>286</v>
+        <v>181</v>
       </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>ProgramInfo.jsp</v>
+        <v>RoomInfo.jsp</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>ProgramInfo.jsp</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="5"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E14" s="10" t="str">
+      <c r="E15" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Login.jsp</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="11"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="12"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
-        <v>16</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="14" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="5"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E19" s="5" t="str">
+      <c r="D20" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Acnt_RegAgr.jsp</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
-        <v>17</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E20" s="5" t="str">
+      <c r="F20" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="5"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Acnt_RegChk.jsp</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
-        <v>18</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21" s="5" t="str">
+      <c r="F21" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="5"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Acnt_RegInfo.jsp</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="5">
-        <v>19</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E22" s="5" t="str">
+      <c r="F22" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="5"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Acnt_RegCom.jsp</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="5">
-        <v>20</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="13" t="s">
+      <c r="F23" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="5"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D24" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="10" t="str">
+      <c r="E24" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Foreservation.jsp</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="5">
-        <v>21</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="5">
-        <v>22</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="5">
-        <v>23</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="11"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="5">
-        <v>24</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="12"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="5">
-        <v>25</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E28" s="10" t="str">
+      <c r="A28" s="5"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="5"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="12" t="str">
         <f t="shared" si="1"/>
         <v>GnrSrch.jsp</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="5">
-        <v>26</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="5">
-        <v>27</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="11"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="5">
-        <v>28</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="11"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="5">
-        <v>29</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="8" t="s">
-        <v>194</v>
+      <c r="A32" s="5"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="5">
-        <v>30</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="3" t="s">
-        <v>188</v>
+      <c r="A33" s="5"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="5">
-        <v>31</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="13" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="5"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="E34" s="10" t="str">
+      <c r="D35" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35" s="12" t="str">
         <f t="shared" si="1"/>
         <v>MonthSrch.jsp</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="5">
-        <v>32</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="5">
-        <v>33</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="12"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="13"/>
       <c r="F36" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="5"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="5">
-        <v>34</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="13" t="s">
+      <c r="G37" s="3"/>
+      <c r="H37" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="5"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D38" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="E37" s="10" t="str">
+      <c r="E38" s="12" t="str">
         <f t="shared" si="1"/>
         <v>GnrResrv.jsp</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="5">
-        <v>35</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="11"/>
       <c r="F38" s="3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="5">
-        <v>36</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="11"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="5">
-        <v>37</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="11"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="13"/>
       <c r="F40" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="5">
-        <v>38</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="8" t="s">
-        <v>218</v>
+      <c r="A41" s="5"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="5">
-        <v>39</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="3" t="s">
+      <c r="A42" s="5"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="5"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="5">
-        <v>40</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E43" s="10" t="str">
+      <c r="G43" s="3"/>
+      <c r="H43" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="5"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" s="12" t="str">
         <f t="shared" si="1"/>
         <v>PrgmSrch.jsp</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="5">
-        <v>41</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="5">
-        <v>42</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="11"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="13"/>
       <c r="F45" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="5">
-        <v>43</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="11"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="13"/>
       <c r="F46" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="5">
-        <v>44</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="8" t="s">
-        <v>193</v>
+      <c r="A47" s="5"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="5">
-        <v>45</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="13" t="s">
+      <c r="A48" s="5"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="5"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D49" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="10" t="str">
+      <c r="E49" s="12" t="str">
         <f t="shared" si="1"/>
         <v>PrgmResrv.jsp</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="5">
-        <v>46</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="11"/>
       <c r="F49" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="5">
-        <v>47</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="11"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="13"/>
       <c r="F50" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="5">
-        <v>48</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="11"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="13"/>
       <c r="F51" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="5">
-        <v>49</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="12"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="13"/>
       <c r="F52" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="5"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="5">
-        <v>50</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="13" t="s">
+      <c r="G53" s="3"/>
+      <c r="H53" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="5"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="E53" s="10" t="str">
+      <c r="E54" s="12" t="str">
         <f t="shared" si="1"/>
         <v>PayInfo.jsp</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" s="5">
-        <v>51</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="11"/>
       <c r="F54" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" s="5">
-        <v>52</v>
-      </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="11"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="13"/>
       <c r="F55" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A56" s="5">
-        <v>53</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="11"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="13"/>
       <c r="F56" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" s="5">
-        <v>54</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="12"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="13"/>
       <c r="F57" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" s="5">
-        <v>55</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="1" t="s">
+      <c r="A58" s="5"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="5"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E58" s="5" t="str">
+      <c r="E59" s="5" t="str">
         <f t="shared" si="1"/>
         <v>PayCmplt.jsp</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="5">
-        <v>56</v>
-      </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="E59" s="10" t="str">
+      <c r="F59" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="5"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Mypage.jsp</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" s="5">
-        <v>57</v>
-      </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="11"/>
       <c r="F60" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" s="5">
-        <v>58</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="11"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="13"/>
       <c r="F61" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" s="5">
-        <v>59</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="11"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="13"/>
       <c r="F62" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" s="5">
-        <v>60</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="12"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="13"/>
       <c r="F63" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" s="5">
-        <v>61</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="13" t="s">
+      <c r="A64" s="5"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D64" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E64" s="10" t="str">
+      <c r="G64" s="3"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" s="5"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" s="12" t="str">
         <f t="shared" si="1"/>
         <v>MyResrv.jsp</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A65" s="5">
-        <v>62</v>
-      </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="11"/>
       <c r="F65" s="3" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A66" s="5">
-        <v>63</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="11"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="13"/>
       <c r="F66" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A67" s="5">
-        <v>64</v>
-      </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="12"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="13"/>
       <c r="F67" s="3" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A68" s="5">
-        <v>65</v>
-      </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E68" s="10" t="str">
+      <c r="A68" s="5"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" s="5"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E69" s="12" t="str">
         <f t="shared" si="1"/>
         <v>ResrvCancle.jsp</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A69" s="5">
-        <v>66</v>
-      </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="12"/>
       <c r="F69" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A70" s="5">
-        <v>67</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="E70" s="10" t="str">
-        <f t="shared" ref="E70:E84" si="2">D70&amp;".jsp"</f>
-        <v>ResrvInfo.jsp</v>
-      </c>
+      <c r="A70" s="5"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="14"/>
       <c r="F70" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A71" s="5">
-        <v>68</v>
-      </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="11"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E71" s="12" t="str">
+        <f t="shared" ref="E71:E85" si="2">D71&amp;".jsp"</f>
+        <v>ResrvInfo.jsp</v>
+      </c>
       <c r="F71" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" s="5">
-        <v>69</v>
-      </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="11"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="13"/>
       <c r="F72" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A73" s="5">
-        <v>70</v>
-      </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="12"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="13"/>
       <c r="F73" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A74" s="5">
-        <v>71</v>
-      </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E74" s="5" t="str">
+      <c r="A74" s="5"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75" s="5"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E75" s="5" t="str">
         <f t="shared" si="2"/>
         <v>JimList.jsp</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A75" s="5">
-        <v>72</v>
-      </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E75" s="10" t="str">
+      <c r="F75" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76" s="5"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E76" s="12" t="str">
         <f t="shared" si="2"/>
         <v>MyQnalist.jsp</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A76" s="5">
-        <v>73</v>
-      </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A77" s="5">
-        <v>74</v>
-      </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="12"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="13"/>
       <c r="F77" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A78" s="5">
-        <v>75</v>
-      </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E78" s="10" t="str">
+      <c r="A78" s="5"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A79" s="5"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E79" s="12" t="str">
         <f t="shared" si="2"/>
         <v>QnaReg.jsp</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A79" s="5">
-        <v>76</v>
-      </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="12"/>
       <c r="F79" s="3" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A80" s="5">
-        <v>77</v>
-      </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E80" s="5" t="str">
+      <c r="A80" s="5"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A81" s="5"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E81" s="5" t="str">
         <f t="shared" si="2"/>
         <v>MyInfo.jsp</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A81" s="5">
-        <v>78</v>
-      </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="E81" s="10" t="str">
+      <c r="F81" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A82" s="5"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E82" s="12" t="str">
         <f t="shared" si="2"/>
         <v>MyInfoEdit.jsp</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A82" s="5">
-        <v>79</v>
-      </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="11"/>
       <c r="F82" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A83" s="5">
-        <v>80</v>
-      </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="12"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="13"/>
       <c r="F83" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A84" s="5">
-        <v>81</v>
-      </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E84" s="5" t="str">
+      <c r="A84" s="5"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A85" s="5"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E85" s="5" t="str">
         <f t="shared" si="2"/>
         <v>MyWidrw.jsp</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="1"/>
+      <c r="F85" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="B2:B84"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="B2:B85"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C44:C48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Foreservation_ViewList.xlsx
+++ b/document/Foreservation_ViewList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A18D5EB-AC16-4F02-A40B-7D8BAA78379C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5694EEC-D3EC-4B21-8481-30216C5ECD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -999,10 +999,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NavSite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1011,15 +1007,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NavRoom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NavProgram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NavMy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavSiteInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavRoomInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavProgramInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1181,10 +1181,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1196,6 +1193,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1205,7 +1205,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1550,7 +1550,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1592,29 +1592,29 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="18" t="s">
         <v>176</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E2" s="18" t="str">
+        <v>284</v>
+      </c>
+      <c r="E2" s="10" t="str">
         <f>D2&amp;".jsp"</f>
         <v>NavMain.jsp</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="5" t="s">
         <v>282</v>
       </c>
@@ -1630,14 +1630,14 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E4" s="18" t="str">
-        <f t="shared" ref="E4" si="0">D4&amp;".jsp"</f>
-        <v>NavSite.jsp</v>
+        <v>286</v>
+      </c>
+      <c r="E4" s="10" t="str">
+        <f t="shared" ref="E4:E5" si="0">D4&amp;".jsp"</f>
+        <v>NavSiteInfo.jsp</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>278</v>
@@ -1647,14 +1647,14 @@
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E5" s="5" t="str">
+        <v>287</v>
+      </c>
+      <c r="E5" s="10" t="str">
         <f>D5&amp;".jsp"</f>
-        <v>NavRoom.jsp</v>
+        <v>NavRoomInfo.jsp</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>235</v>
@@ -1664,14 +1664,14 @@
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>D6&amp;".jsp"</f>
-        <v>NavProgram.jsp</v>
+        <v>NavProgramInfo.jsp</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>279</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E7" s="5" t="str">
         <f t="shared" ref="E7:E69" si="1">D7&amp;".jsp"</f>
@@ -1698,14 +1698,14 @@
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
-      <c r="B8" s="13"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="5" t="s">
         <v>174</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E8" s="18" t="str">
+      <c r="E8" s="10" t="str">
         <f t="shared" si="1"/>
         <v>Footer.jsp</v>
       </c>
@@ -1715,11 +1715,11 @@
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E9" s="15" t="str">
@@ -1734,9 +1734,9 @@
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="16"/>
       <c r="F10" s="9" t="s">
         <v>179</v>
@@ -1746,9 +1746,9 @@
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="17"/>
       <c r="F11" s="9" t="s">
         <v>178</v>
@@ -1758,14 +1758,14 @@
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
-      <c r="B12" s="13"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="5" t="s">
         <v>177</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="5" t="str">
+      <c r="E12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SiteInfo.jsp</v>
       </c>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
-      <c r="B13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="5" t="s">
         <v>179</v>
       </c>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="5" t="s">
         <v>178</v>
       </c>
@@ -1809,14 +1809,14 @@
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="12" t="str">
+      <c r="E15" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Login.jsp</v>
       </c>
@@ -1828,10 +1828,10 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="13"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="9" t="s">
         <v>197</v>
       </c>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="13"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="9" t="s">
         <v>198</v>
       </c>
@@ -1852,10 +1852,10 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="9" t="s">
         <v>199</v>
       </c>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="14"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="9" t="s">
         <v>200</v>
       </c>
@@ -1876,8 +1876,8 @@
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="18" t="s">
         <v>172</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1895,8 +1895,8 @@
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="5" t="s">
         <v>202</v>
       </c>
@@ -1912,8 +1912,8 @@
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="5" t="s">
         <v>203</v>
       </c>
@@ -1929,8 +1929,8 @@
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="5" t="s">
         <v>204</v>
       </c>
@@ -1946,14 +1946,14 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="12" t="str">
+      <c r="E24" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Foreservation.jsp</v>
       </c>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="13"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="3" t="s">
         <v>168</v>
       </c>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="3" t="s">
         <v>170</v>
       </c>
@@ -1989,10 +1989,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="13"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="3" t="s">
         <v>171</v>
       </c>
@@ -2001,10 +2001,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="14"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="3" t="s">
         <v>172</v>
       </c>
@@ -2013,14 +2013,14 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="E29" s="12" t="str">
+      <c r="E29" s="11" t="str">
         <f t="shared" si="1"/>
         <v>GnrSrch.jsp</v>
       </c>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="3" t="s">
         <v>187</v>
       </c>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="13"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="3" t="s">
         <v>189</v>
       </c>
@@ -2056,10 +2056,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="13"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="3" t="s">
         <v>190</v>
       </c>
@@ -2068,10 +2068,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="8" t="s">
         <v>194</v>
       </c>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="14"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="13"/>
       <c r="F34" s="3" t="s">
         <v>188</v>
       </c>
@@ -2092,14 +2092,14 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="10" t="s">
+      <c r="B35" s="12"/>
+      <c r="C35" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="E35" s="12" t="str">
+      <c r="E35" s="11" t="str">
         <f t="shared" si="1"/>
         <v>MonthSrch.jsp</v>
       </c>
@@ -2111,10 +2111,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="13"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="3" t="s">
         <v>187</v>
       </c>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="14"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="13"/>
       <c r="F37" s="3" t="s">
         <v>195</v>
       </c>
@@ -2137,14 +2137,14 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="E38" s="12" t="str">
+      <c r="E38" s="11" t="str">
         <f t="shared" si="1"/>
         <v>GnrResrv.jsp</v>
       </c>
@@ -2156,10 +2156,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="13"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="3" t="s">
         <v>214</v>
       </c>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="13"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="3" t="s">
         <v>215</v>
       </c>
@@ -2180,10 +2180,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="13"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="3" t="s">
         <v>216</v>
       </c>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="13"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="8" t="s">
         <v>217</v>
       </c>
@@ -2204,10 +2204,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="14"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="13"/>
       <c r="F43" s="3" t="s">
         <v>189</v>
       </c>
@@ -2218,14 +2218,14 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="10" t="s">
+      <c r="B44" s="12"/>
+      <c r="C44" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="E44" s="12" t="str">
+      <c r="E44" s="11" t="str">
         <f t="shared" si="1"/>
         <v>PrgmSrch.jsp</v>
       </c>
@@ -2237,10 +2237,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="13"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="3" t="s">
         <v>187</v>
       </c>
@@ -2249,10 +2249,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="13"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="3" t="s">
         <v>189</v>
       </c>
@@ -2261,10 +2261,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="13"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="12"/>
       <c r="F47" s="3" t="s">
         <v>190</v>
       </c>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="14"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="13"/>
       <c r="F48" s="8" t="s">
         <v>193</v>
       </c>
@@ -2285,14 +2285,14 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="10" t="s">
+      <c r="B49" s="12"/>
+      <c r="C49" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E49" s="12" t="str">
+      <c r="E49" s="11" t="str">
         <f t="shared" si="1"/>
         <v>PrgmResrv.jsp</v>
       </c>
@@ -2304,10 +2304,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="13"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="12"/>
       <c r="F50" s="3" t="s">
         <v>218</v>
       </c>
@@ -2316,10 +2316,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="13"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="3" t="s">
         <v>219</v>
       </c>
@@ -2328,10 +2328,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="13"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="12"/>
       <c r="F52" s="3" t="s">
         <v>221</v>
       </c>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="14"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="13"/>
       <c r="F53" s="3" t="s">
         <v>189</v>
       </c>
@@ -2354,14 +2354,14 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="10" t="s">
+      <c r="B54" s="12"/>
+      <c r="C54" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="E54" s="12" t="str">
+      <c r="E54" s="11" t="str">
         <f t="shared" si="1"/>
         <v>PayInfo.jsp</v>
       </c>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="13"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="12"/>
       <c r="F55" s="3" t="s">
         <v>226</v>
       </c>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="13"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="12"/>
       <c r="F56" s="3" t="s">
         <v>227</v>
       </c>
@@ -2397,10 +2397,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="13"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="12"/>
       <c r="F57" s="3" t="s">
         <v>228</v>
       </c>
@@ -2409,10 +2409,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="14"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="13"/>
       <c r="F58" s="3" t="s">
         <v>229</v>
       </c>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
-      <c r="B59" s="13"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="1" t="s">
         <v>231</v>
       </c>
@@ -2440,14 +2440,14 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="10" t="s">
+      <c r="B60" s="12"/>
+      <c r="C60" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="E60" s="12" t="str">
+      <c r="E60" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Mypage.jsp</v>
       </c>
@@ -2459,10 +2459,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="13"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="12"/>
       <c r="F61" s="3" t="s">
         <v>238</v>
       </c>
@@ -2471,10 +2471,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="13"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="12"/>
       <c r="F62" s="3" t="s">
         <v>239</v>
       </c>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="13"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="3" t="s">
         <v>240</v>
       </c>
@@ -2495,10 +2495,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="14"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="13"/>
       <c r="F64" s="3" t="s">
         <v>241</v>
       </c>
@@ -2507,14 +2507,14 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="5"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="10" t="s">
+      <c r="B65" s="12"/>
+      <c r="C65" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="E65" s="12" t="str">
+      <c r="E65" s="11" t="str">
         <f t="shared" si="1"/>
         <v>MyResrv.jsp</v>
       </c>
@@ -2526,10 +2526,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="5"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="13"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="12"/>
       <c r="F66" s="3" t="s">
         <v>227</v>
       </c>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="5"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="13"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="12"/>
       <c r="F67" s="3" t="s">
         <v>229</v>
       </c>
@@ -2550,10 +2550,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="14"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="13"/>
       <c r="F68" s="3" t="s">
         <v>244</v>
       </c>
@@ -2562,14 +2562,14 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="10" t="s">
+      <c r="B69" s="12"/>
+      <c r="C69" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="E69" s="12" t="str">
+      <c r="E69" s="11" t="str">
         <f t="shared" si="1"/>
         <v>ResrvCancle.jsp</v>
       </c>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="14"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="13"/>
       <c r="F70" s="3" t="s">
         <v>248</v>
       </c>
@@ -2593,14 +2593,14 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="5"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="10" t="s">
+      <c r="B71" s="12"/>
+      <c r="C71" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="E71" s="12" t="str">
+      <c r="E71" s="11" t="str">
         <f t="shared" ref="E71:E85" si="2">D71&amp;".jsp"</f>
         <v>ResrvInfo.jsp</v>
       </c>
@@ -2612,10 +2612,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="5"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="13"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="12"/>
       <c r="F72" s="3" t="s">
         <v>250</v>
       </c>
@@ -2624,10 +2624,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="5"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="13"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="12"/>
       <c r="F73" s="3" t="s">
         <v>253</v>
       </c>
@@ -2636,10 +2636,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="14"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="13"/>
       <c r="F74" s="3" t="s">
         <v>252</v>
       </c>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="5"/>
-      <c r="B75" s="13"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="1" t="s">
         <v>238</v>
       </c>
@@ -2667,14 +2667,14 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="5"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="10" t="s">
+      <c r="B76" s="12"/>
+      <c r="C76" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E76" s="12" t="str">
+      <c r="E76" s="11" t="str">
         <f t="shared" si="2"/>
         <v>MyQnalist.jsp</v>
       </c>
@@ -2686,10 +2686,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="13"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="12"/>
       <c r="F77" s="3" t="s">
         <v>259</v>
       </c>
@@ -2698,10 +2698,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="14"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="13"/>
       <c r="F78" s="3" t="s">
         <v>260</v>
       </c>
@@ -2710,14 +2710,14 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="10" t="s">
+      <c r="B79" s="12"/>
+      <c r="C79" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="E79" s="12" t="str">
+      <c r="E79" s="11" t="str">
         <f t="shared" si="2"/>
         <v>QnaReg.jsp</v>
       </c>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="14"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="13"/>
       <c r="F80" s="3" t="s">
         <v>248</v>
       </c>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
-      <c r="B81" s="13"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="1" t="s">
         <v>240</v>
       </c>
@@ -2760,14 +2760,14 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="10" t="s">
+      <c r="B82" s="12"/>
+      <c r="C82" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="E82" s="12" t="str">
+      <c r="E82" s="11" t="str">
         <f t="shared" si="2"/>
         <v>MyInfoEdit.jsp</v>
       </c>
@@ -2779,10 +2779,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="13"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="12"/>
       <c r="F83" s="3" t="s">
         <v>268</v>
       </c>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="5"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="14"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="13"/>
       <c r="F84" s="3" t="s">
         <v>269</v>
       </c>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="5"/>
-      <c r="B85" s="14"/>
+      <c r="B85" s="13"/>
       <c r="C85" s="1" t="s">
         <v>241</v>
       </c>
@@ -2822,15 +2822,32 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C9:C11"/>
     <mergeCell ref="D82:D84"/>
     <mergeCell ref="C82:C84"/>
     <mergeCell ref="B2:B85"/>
@@ -2847,32 +2864,15 @@
     <mergeCell ref="C76:C78"/>
     <mergeCell ref="D79:D80"/>
     <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E71:E74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Foreservation_ViewList.xlsx
+++ b/document/Foreservation_ViewList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5694EEC-D3EC-4B21-8481-30216C5ECD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B41C5A-08E7-4EE5-8547-2E64CBA0FF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="289">
   <si>
     <t>OBJECT</t>
   </si>
@@ -549,10 +549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>월별 예약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -569,10 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>홈페이지 안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴바</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,18 +589,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Foreservation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ForeservationInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GnrResrv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -811,10 +795,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mypage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예약정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -823,10 +803,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>견적요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나의정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -863,10 +839,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예약개요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로그램 예약내역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -987,10 +959,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProgramInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Footer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1019,7 +987,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NavProgramInfo</t>
+    <t>NavPrgmInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrgmInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디찾기</t>
+  </si>
+  <si>
+    <t>비밀번호찾기</t>
+  </si>
+  <si>
+    <t>찜목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindPw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 클릭 시 예약정보로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약정보/찜목록/1:1문의/나의정보/회원탈퇴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1088,7 +1086,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1111,48 +1109,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1184,28 +1145,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1549,64 +1495,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF753CA-3B43-42CB-99AB-2EC6963C2F06}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="3.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="19.7265625" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.1796875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40" style="4" customWidth="1"/>
+    <col min="8" max="8" width="27.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>167</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
-      <c r="B2" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>176</v>
+      <c r="B2" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E2" s="10" t="str">
         <f>D2&amp;".jsp"</f>
         <v>NavMain.jsp</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1614,16 +1561,16 @@
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="18"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="5" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>D3&amp;".jsp"</f>
         <v>NavResrv.jsp</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1631,16 +1578,16 @@
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="18"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="5" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E4" s="10" t="str">
-        <f t="shared" ref="E4:E5" si="0">D4&amp;".jsp"</f>
+        <f t="shared" ref="E4" si="0">D4&amp;".jsp"</f>
         <v>NavSiteInfo.jsp</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1648,16 +1595,16 @@
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="18"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="5" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E5" s="10" t="str">
         <f>D5&amp;".jsp"</f>
         <v>NavRoomInfo.jsp</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1665,16 +1612,16 @@
     <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="18"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" s="5" t="str">
+        <v>280</v>
+      </c>
+      <c r="E6" s="10" t="str">
         <f>D6&amp;".jsp"</f>
-        <v>NavProgramInfo.jsp</v>
+        <v>NavPrgmInfo.jsp</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1682,28 +1629,30 @@
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="18"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="5" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E7" s="5" t="str">
-        <f t="shared" ref="E7:E69" si="1">D7&amp;".jsp"</f>
+        <f t="shared" ref="E7:E85" si="1">D7&amp;".jsp"</f>
         <v>NavMy.jsp</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="G7" s="5"/>
+        <v>224</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="12"/>
       <c r="C8" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E8" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1716,18 +1665,18 @@
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E9" s="15" t="str">
+      <c r="C9" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="13" t="str">
         <f t="shared" si="1"/>
         <v>ForeservationInfo.jsp</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1735,11 +1684,11 @@
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="9" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1747,11 +1696,11 @@
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="9" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1759,105 +1708,100 @@
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>SiteInfo.jsp</v>
-      </c>
-      <c r="F12" s="9"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="9" t="s">
+        <v>272</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>RoomInfo.jsp</v>
-      </c>
-      <c r="F13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="9" t="s">
+        <v>224</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>ProgramInfo.jsp</v>
-      </c>
-      <c r="F14" s="9"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="9" t="s">
+        <v>170</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="11" t="str">
+      <c r="C15" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Login.jsp</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>172</v>
-      </c>
+        <v>SiteInfo.jsp</v>
+      </c>
+      <c r="F15" s="9"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="9" t="s">
-        <v>197</v>
-      </c>
+      <c r="C16" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>RoomInfo.jsp</v>
+      </c>
+      <c r="F16" s="9"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="9" t="s">
-        <v>198</v>
-      </c>
+      <c r="C17" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E17" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>PrgmInfo.jsp</v>
+      </c>
+      <c r="F17" s="9"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="11"/>
       <c r="E18" s="12"/>
       <c r="F18" s="9" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1865,11 +1809,11 @@
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="13"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="9" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1877,18 +1821,11 @@
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Acnt_RegAgr.jsp</v>
-      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="9" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1896,16 +1833,11 @@
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Acnt_RegChk.jsp</v>
-      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="9" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -1913,52 +1845,42 @@
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Acnt_RegInfo.jsp</v>
-      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="9" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Acnt_RegCom.jsp</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="C23" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="12" t="str">
+        <f>D23&amp;".jsp"</f>
+        <v>MyResrv.jsp</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Foreservation.jsp</v>
-      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="3" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="1"/>
@@ -1966,11 +1888,11 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="12"/>
       <c r="F25" s="3" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="1"/>
@@ -1978,11 +1900,11 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="12"/>
       <c r="F26" s="3" t="s">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="1"/>
@@ -1990,11 +1912,18 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="12"/>
+      <c r="C27" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E27" s="12" t="str">
+        <f>D27&amp;".jsp"</f>
+        <v>ResrvCancle.jsp</v>
+      </c>
       <c r="F27" s="3" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="1"/>
@@ -2002,11 +1931,11 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="3" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="1"/>
@@ -2014,18 +1943,18 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E29" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>GnrSrch.jsp</v>
+      <c r="C29" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" s="12" t="str">
+        <f t="shared" ref="E29:E43" si="2">D29&amp;".jsp"</f>
+        <v>ResrvInfo.jsp</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="1"/>
@@ -2033,11 +1962,11 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="12"/>
       <c r="F30" s="3" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="1"/>
@@ -2045,11 +1974,11 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="12"/>
       <c r="F31" s="3" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="1"/>
@@ -2057,35 +1986,49 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="12"/>
       <c r="F32" s="3" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E33" s="5" t="str">
+        <f t="shared" ref="E33" si="3">D33&amp;".jsp"</f>
+        <v>JimList.jsp</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="13"/>
+      <c r="C34" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>MyQnalist.jsp</v>
+      </c>
       <c r="F34" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="1"/>
@@ -2093,18 +2036,11 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>MonthSrch.jsp</v>
-      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="3" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="1"/>
@@ -2112,11 +2048,11 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="12"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="12"/>
       <c r="F36" s="3" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="1"/>
@@ -2124,32 +2060,30 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="13"/>
+      <c r="C37" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>QnaReg.jsp</v>
+      </c>
       <c r="F37" s="3" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="E38" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>GnrResrv.jsp</v>
-      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="3" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="1"/>
@@ -2157,11 +2091,18 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="12"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="12"/>
+      <c r="C39" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E39" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>MyInfo.jsp</v>
+      </c>
       <c r="F39" s="3" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="1"/>
@@ -2169,11 +2110,18 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="12"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E40" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>MyInfoEdit.jsp</v>
+      </c>
       <c r="F40" s="3" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="1"/>
@@ -2181,11 +2129,11 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="12"/>
       <c r="F41" s="3" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="1"/>
@@ -2193,11 +2141,11 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="8" t="s">
-        <v>217</v>
+      <c r="F42" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="1"/>
@@ -2205,180 +2153,208 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="12"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="13"/>
+      <c r="C43" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E43" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>MyWidrw.jsp</v>
+      </c>
       <c r="F43" s="3" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="G43" s="3"/>
-      <c r="H43" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E44" s="11" t="str">
+      <c r="C44" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E44" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>PrgmSrch.jsp</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+        <v>Login.jsp</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="B45" s="12"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
       <c r="E45" s="12"/>
-      <c r="F45" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F45" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
       <c r="B46" s="12"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F46" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
       <c r="E47" s="12"/>
-      <c r="F47" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F47" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E49" s="11" t="str">
+      <c r="C49" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>PrgmResrv.jsp</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+        <v>Acnt_RegAgr.jsp</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C50" s="12"/>
+      <c r="D50" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acnt_RegChk.jsp</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C51" s="12"/>
+      <c r="D51" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acnt_RegInfo.jsp</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C52" s="12"/>
+      <c r="D52" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Acnt_RegCom.jsp</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C53" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>FindID.jsp</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E54" s="11" t="str">
+      <c r="C54" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E54" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>PayInfo.jsp</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="1"/>
+        <v>FindPw.jsp</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="12"/>
+      <c r="C55" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E55" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>GnrSrch.jsp</v>
+      </c>
       <c r="F55" s="3" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="1"/>
@@ -2386,11 +2362,11 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
       <c r="E56" s="12"/>
       <c r="F56" s="3" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="1"/>
@@ -2398,11 +2374,11 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
       <c r="E57" s="12"/>
       <c r="F57" s="3" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="1"/>
@@ -2410,11 +2386,11 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="13"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12"/>
       <c r="F58" s="3" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="1"/>
@@ -2422,18 +2398,11 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E59" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>PayCmplt.jsp</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>233</v>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="1"/>
@@ -2441,18 +2410,11 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="E60" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>Mypage.jsp</v>
-      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="3" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="1"/>
@@ -2460,11 +2422,18 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="12"/>
+      <c r="C61" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E61" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>MonthSrch.jsp</v>
+      </c>
       <c r="F61" s="3" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="1"/>
@@ -2472,11 +2441,11 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
       <c r="E62" s="12"/>
       <c r="F62" s="3" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="1"/>
@@ -2484,23 +2453,32 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
       <c r="E63" s="12"/>
       <c r="F63" s="3" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="G63" s="3"/>
-      <c r="H63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="13"/>
+      <c r="C64" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E64" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>GnrResrv.jsp</v>
+      </c>
       <c r="F64" s="3" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="1"/>
@@ -2508,18 +2486,11 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="5"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="E65" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>MyResrv.jsp</v>
-      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
       <c r="F65" s="3" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="1"/>
@@ -2527,11 +2498,11 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="5"/>
       <c r="B66" s="12"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
       <c r="E66" s="12"/>
       <c r="F66" s="3" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="1"/>
@@ -2539,11 +2510,11 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="5"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
       <c r="E67" s="12"/>
       <c r="F67" s="3" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="1"/>
@@ -2551,11 +2522,11 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
       <c r="B68" s="12"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="3" t="s">
-        <v>244</v>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="1"/>
@@ -2563,30 +2534,32 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
       <c r="B69" s="12"/>
-      <c r="C69" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="E69" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>ResrvCancle.jsp</v>
-      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="3" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="G69" s="3"/>
-      <c r="H69" s="1"/>
+      <c r="H69" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="13"/>
+      <c r="C70" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E70" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>PrgmSrch.jsp</v>
+      </c>
       <c r="F70" s="3" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="1"/>
@@ -2594,18 +2567,11 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="5"/>
       <c r="B71" s="12"/>
-      <c r="C71" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="E71" s="11" t="str">
-        <f t="shared" ref="E71:E85" si="2">D71&amp;".jsp"</f>
-        <v>ResrvInfo.jsp</v>
-      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
       <c r="F71" s="3" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="1"/>
@@ -2613,11 +2579,11 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="5"/>
       <c r="B72" s="12"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
       <c r="E72" s="12"/>
       <c r="F72" s="3" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="1"/>
@@ -2625,11 +2591,11 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="5"/>
       <c r="B73" s="12"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
       <c r="E73" s="12"/>
       <c r="F73" s="3" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="1"/>
@@ -2637,11 +2603,11 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
       <c r="B74" s="12"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="3" t="s">
-        <v>252</v>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="1"/>
@@ -2649,18 +2615,18 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="5"/>
       <c r="B75" s="12"/>
-      <c r="C75" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E75" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>JimList.jsp</v>
+      <c r="C75" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E75" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>PrgmResrv.jsp</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="1"/>
@@ -2668,18 +2634,11 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="5"/>
       <c r="B76" s="12"/>
-      <c r="C76" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="E76" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>MyQnalist.jsp</v>
-      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12"/>
       <c r="F76" s="3" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="1"/>
@@ -2687,11 +2646,11 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
       <c r="B77" s="12"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
       <c r="E77" s="12"/>
       <c r="F77" s="3" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="1"/>
@@ -2699,11 +2658,11 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
       <c r="B78" s="12"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="13"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12"/>
       <c r="F78" s="3" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="1"/>
@@ -2711,30 +2670,32 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="E79" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>QnaReg.jsp</v>
-      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="12"/>
       <c r="F79" s="3" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="G79" s="3"/>
-      <c r="H79" s="1"/>
+      <c r="H79" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="13"/>
+      <c r="C80" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>PayInfo.jsp</v>
+      </c>
       <c r="F80" s="3" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="1"/>
@@ -2742,18 +2703,11 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E81" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>MyInfo.jsp</v>
-      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12"/>
       <c r="F81" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="1"/>
@@ -2761,18 +2715,11 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="E82" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>MyInfoEdit.jsp</v>
-      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12"/>
       <c r="F82" s="3" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="1"/>
@@ -2780,11 +2727,11 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
       <c r="E83" s="12"/>
       <c r="F83" s="3" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="1"/>
@@ -2792,87 +2739,86 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="5"/>
       <c r="B84" s="12"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="13"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="12"/>
       <c r="F84" s="3" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="5"/>
-      <c r="B85" s="13"/>
+      <c r="B85" s="12"/>
       <c r="C85" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="E85" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>MyWidrw.jsp</v>
+        <f t="shared" si="1"/>
+        <v>PayCmplt.jsp</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G85" s="3"/>
-      <c r="H85" s="1"/>
+      <c r="H85" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
+  <mergeCells count="48">
+    <mergeCell ref="B2:B85"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="E80:E84"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E64:E69"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C44:C48"/>
     <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="B2:B85"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="D55:D60"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C70:C74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Foreservation_ViewList.xlsx
+++ b/document/Foreservation_ViewList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B41C5A-08E7-4EE5-8547-2E64CBA0FF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20578079-BAE1-4C97-8BC3-70C8B14B3862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="290">
   <si>
     <t>OBJECT</t>
   </si>
@@ -975,10 +975,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NavMy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NavSiteInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1018,6 +1014,14 @@
   </si>
   <si>
     <t>예약정보/찜목록/1:1문의/나의정보/회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavMypage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.03.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1495,7 +1499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF753CA-3B43-42CB-99AB-2EC6963C2F06}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E23" sqref="E23:E26"/>
     </sheetView>
   </sheetViews>
@@ -1580,7 +1584,7 @@
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E4" s="10" t="str">
         <f t="shared" ref="E4" si="0">D4&amp;".jsp"</f>
@@ -1597,7 +1601,7 @@
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E5" s="10" t="str">
         <f>D5&amp;".jsp"</f>
@@ -1614,7 +1618,7 @@
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E6" s="10" t="str">
         <f>D6&amp;".jsp"</f>
@@ -1631,17 +1635,17 @@
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E7" s="5" t="str">
+        <v>288</v>
+      </c>
+      <c r="E7" s="10" t="str">
         <f t="shared" ref="E7:E85" si="1">D7&amp;".jsp"</f>
-        <v>NavMy.jsp</v>
+        <v>NavMypage.jsp</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>224</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -1782,7 +1786,7 @@
         <v>176</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E17" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1813,7 +1817,7 @@
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
       <c r="F19" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1863,7 +1867,7 @@
       <c r="D23" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="E23" s="12" t="str">
+      <c r="E23" s="13" t="str">
         <f>D23&amp;".jsp"</f>
         <v>MyResrv.jsp</v>
       </c>
@@ -1871,43 +1875,51 @@
         <v>237</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="12"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="3" t="s">
         <v>223</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="12"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="3" t="s">
         <v>225</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="12"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="3" t="s">
         <v>238</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
@@ -2012,7 +2024,9 @@
         <v>249</v>
       </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="H33" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
@@ -2031,7 +2045,9 @@
         <v>182</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
@@ -2043,7 +2059,9 @@
         <v>252</v>
       </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
@@ -2055,7 +2073,9 @@
         <v>253</v>
       </c>
       <c r="G36" s="3"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
@@ -2105,7 +2125,9 @@
         <v>229</v>
       </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
@@ -2167,7 +2189,9 @@
         <v>235</v>
       </c>
       <c r="G43" s="3"/>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
@@ -2310,10 +2334,10 @@
       <c r="A53" s="5"/>
       <c r="B53" s="12"/>
       <c r="C53" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E53" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2327,10 +2351,10 @@
       <c r="A54" s="5"/>
       <c r="B54" s="12"/>
       <c r="C54" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E54" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2357,7 +2381,9 @@
         <v>182</v>
       </c>
       <c r="G55" s="3"/>
-      <c r="H55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
@@ -2369,7 +2395,9 @@
         <v>183</v>
       </c>
       <c r="G56" s="3"/>
-      <c r="H56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
@@ -2381,7 +2409,9 @@
         <v>185</v>
       </c>
       <c r="G57" s="3"/>
-      <c r="H57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
@@ -2393,7 +2423,9 @@
         <v>186</v>
       </c>
       <c r="G58" s="3"/>
-      <c r="H58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
@@ -2405,7 +2437,9 @@
         <v>190</v>
       </c>
       <c r="G59" s="3"/>
-      <c r="H59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
@@ -2417,7 +2451,9 @@
         <v>184</v>
       </c>
       <c r="G60" s="3"/>
-      <c r="H60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
@@ -2766,7 +2802,7 @@
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2797,6 +2833,9 @@
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="D70:D74"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="D23:D26"/>
     <mergeCell ref="C23:C26"/>
@@ -2809,11 +2848,8 @@
     <mergeCell ref="D55:D60"/>
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="C64:C69"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D70:D74"/>
     <mergeCell ref="C80:C84"/>
     <mergeCell ref="D80:D84"/>
     <mergeCell ref="D75:D79"/>

--- a/document/Foreservation_ViewList.xlsx
+++ b/document/Foreservation_ViewList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20578079-BAE1-4C97-8BC3-70C8B14B3862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6180E1A9-B3D7-4826-A0B4-DF0BAB270B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="297">
   <si>
     <t>OBJECT</t>
   </si>
@@ -871,10 +871,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MyQnalist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>글쓰기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -919,10 +915,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MyWidrw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1022,6 +1014,40 @@
   </si>
   <si>
     <t>2024.03.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약정보</t>
+  </si>
+  <si>
+    <t>나의정보</t>
+  </si>
+  <si>
+    <t>NavMyResrv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavJimList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qnalist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavQnaList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavMyInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavWidrw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Widrw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1117,7 +1143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1149,13 +1175,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1499,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF753CA-3B43-42CB-99AB-2EC6963C2F06}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1517,22 +1546,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>167</v>
@@ -1543,31 +1572,31 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
-      <c r="B2" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>174</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E2" s="10" t="str">
         <f>D2&amp;".jsp"</f>
         <v>NavMain.jsp</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>D3&amp;".jsp"</f>
@@ -1581,27 +1610,27 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E4" s="10" t="str">
         <f t="shared" ref="E4" si="0">D4&amp;".jsp"</f>
         <v>NavSiteInfo.jsp</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E5" s="10" t="str">
         <f>D5&amp;".jsp"</f>
@@ -1615,256 +1644,281 @@
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E6" s="10" t="str">
         <f>D6&amp;".jsp"</f>
         <v>NavPrgmInfo.jsp</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E7" s="10" t="str">
-        <f t="shared" ref="E7:E85" si="1">D7&amp;".jsp"</f>
+        <f>D7&amp;".jsp"</f>
         <v>NavMypage.jsp</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>224</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="5" t="s">
-        <v>173</v>
-      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="5" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="E8" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>Footer.jsp</v>
-      </c>
-      <c r="F8" s="9"/>
+        <f t="shared" ref="E8:E12" si="1">D8&amp;".jsp"</f>
+        <v>NavMyResrv.jsp</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="13" t="str">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>ForeservationInfo.jsp</v>
+        <v>NavJimList.jsp</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>NavQnaList.jsp</v>
+      </c>
       <c r="F10" s="9" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E11" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>NavMyInfo.jsp</v>
+      </c>
       <c r="F11" s="9" t="s">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>NavWidrw.jsp</v>
+      </c>
       <c r="F12" s="9" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="9" t="s">
-        <v>224</v>
-      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13" s="10" t="str">
+        <f t="shared" ref="E13:E85" si="2">D13&amp;".jsp"</f>
+        <v>Footer.jsp</v>
+      </c>
+      <c r="F13" s="9"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>ForeservationInfo.jsp</v>
+      </c>
       <c r="F14" s="9" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>SiteInfo.jsp</v>
-      </c>
-      <c r="F15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>RoomInfo.jsp</v>
-      </c>
-      <c r="F16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E17" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>PrgmInfo.jsp</v>
-      </c>
-      <c r="F17" s="9"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="9" t="s">
+        <v>270</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>285</v>
+      </c>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="B19" s="12"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="9" t="s">
-        <v>283</v>
+        <v>170</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="9" t="s">
-        <v>250</v>
-      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>SiteInfo.jsp</v>
+      </c>
+      <c r="F20" s="9"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="9" t="s">
-        <v>234</v>
-      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>RoomInfo.jsp</v>
+      </c>
+      <c r="F21" s="9"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="9" t="s">
-        <v>235</v>
-      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>PrgmInfo.jsp</v>
+      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>236</v>
       </c>
       <c r="E23" s="13" t="str">
@@ -1876,61 +1930,61 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="13"/>
       <c r="F24" s="3" t="s">
         <v>223</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="13"/>
       <c r="F25" s="3" t="s">
         <v>225</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="13"/>
       <c r="F26" s="3" t="s">
         <v>238</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="E27" s="12" t="str">
+      <c r="E27" s="11" t="str">
         <f>D27&amp;".jsp"</f>
         <v>ResrvCancle.jsp</v>
       </c>
@@ -1942,10 +1996,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="3" t="s">
         <v>242</v>
       </c>
@@ -1954,15 +2008,15 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="E29" s="12" t="str">
-        <f t="shared" ref="E29:E43" si="2">D29&amp;".jsp"</f>
+      <c r="E29" s="11" t="str">
+        <f t="shared" ref="E29:E43" si="3">D29&amp;".jsp"</f>
         <v>ResrvInfo.jsp</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -1973,10 +2027,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="3" t="s">
         <v>243</v>
       </c>
@@ -1985,10 +2039,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="3" t="s">
         <v>246</v>
       </c>
@@ -1997,10 +2051,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="3" t="s">
         <v>245</v>
       </c>
@@ -2009,7 +2063,7 @@
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
-      <c r="B33" s="12"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="1" t="s">
         <v>233</v>
       </c>
@@ -2017,7 +2071,7 @@
         <v>248</v>
       </c>
       <c r="E33" s="5" t="str">
-        <f t="shared" ref="E33" si="3">D33&amp;".jsp"</f>
+        <f t="shared" ref="E33" si="4">D33&amp;".jsp"</f>
         <v>JimList.jsp</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -2025,83 +2079,83 @@
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E34" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>MyQnalist.jsp</v>
+      <c r="D34" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E34" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>Qnalist.jsp</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>182</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="11" t="s">
+      <c r="B37" s="11"/>
+      <c r="C37" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="E37" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>QnaReg.jsp</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="E37" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>QnaReg.jsp</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="3" t="s">
         <v>242</v>
       </c>
@@ -2110,15 +2164,15 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
-      <c r="B39" s="12"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="1" t="s">
         <v>234</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E39" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MyInfo.jsp</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -2126,84 +2180,84 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="11" t="s">
+      <c r="B40" s="11"/>
+      <c r="C40" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>MyInfoEdit.jsp</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="E40" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>MyInfoEdit.jsp</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="E43" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>MyWidrw.jsp</v>
+        <f t="shared" si="3"/>
+        <v>Widrw.jsp</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E44" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="E44" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>Login.jsp</v>
       </c>
       <c r="F44" s="9" t="s">
@@ -2214,10 +2268,10 @@
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="9" t="s">
         <v>193</v>
       </c>
@@ -2226,10 +2280,10 @@
     </row>
     <row r="46" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="9" t="s">
         <v>194</v>
       </c>
@@ -2238,10 +2292,10 @@
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="9" t="s">
         <v>195</v>
       </c>
@@ -2250,10 +2304,10 @@
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="9" t="s">
         <v>196</v>
       </c>
@@ -2262,15 +2316,15 @@
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12" t="s">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11" t="s">
         <v>171</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E49" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Acnt_RegAgr.jsp</v>
       </c>
       <c r="F49" s="9" t="s">
@@ -2281,13 +2335,13 @@
     </row>
     <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E50" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Acnt_RegChk.jsp</v>
       </c>
       <c r="F50" s="9" t="s">
@@ -2298,13 +2352,13 @@
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="5" t="s">
         <v>199</v>
       </c>
       <c r="E51" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Acnt_RegInfo.jsp</v>
       </c>
       <c r="F51" s="9" t="s">
@@ -2315,13 +2369,13 @@
     </row>
     <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="5" t="s">
         <v>200</v>
       </c>
       <c r="E52" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Acnt_RegCom.jsp</v>
       </c>
       <c r="F52" s="9" t="s">
@@ -2332,15 +2386,15 @@
     </row>
     <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
-      <c r="B53" s="12"/>
+      <c r="B53" s="11"/>
       <c r="C53" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E53" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>FindID.jsp</v>
       </c>
       <c r="F53" s="9"/>
@@ -2349,15 +2403,15 @@
     </row>
     <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
-      <c r="B54" s="12"/>
+      <c r="B54" s="11"/>
       <c r="C54" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E54" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>FindPw.jsp</v>
       </c>
       <c r="F54" s="9"/>
@@ -2366,15 +2420,15 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="11" t="s">
+      <c r="B55" s="11"/>
+      <c r="C55" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="E55" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="E55" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>GnrSrch.jsp</v>
       </c>
       <c r="F55" s="3" t="s">
@@ -2382,90 +2436,90 @@
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="12"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="12"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="3" t="s">
         <v>185</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="12"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="12"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="8" t="s">
         <v>190</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="11"/>
       <c r="F60" s="3" t="s">
         <v>184</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="11" t="s">
+      <c r="B61" s="11"/>
+      <c r="C61" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="E61" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="E61" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>MonthSrch.jsp</v>
       </c>
       <c r="F61" s="3" t="s">
@@ -2476,10 +2530,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="12"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="11"/>
       <c r="F62" s="3" t="s">
         <v>183</v>
       </c>
@@ -2488,10 +2542,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="12"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="11"/>
       <c r="F63" s="3" t="s">
         <v>191</v>
       </c>
@@ -2502,15 +2556,15 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="11" t="s">
+      <c r="B64" s="11"/>
+      <c r="C64" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E64" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="E64" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>GnrResrv.jsp</v>
       </c>
       <c r="F64" s="3" t="s">
@@ -2521,10 +2575,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="5"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="12"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="3" t="s">
         <v>210</v>
       </c>
@@ -2533,10 +2587,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="5"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="12"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="3" t="s">
         <v>211</v>
       </c>
@@ -2545,10 +2599,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="5"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="12"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="3" t="s">
         <v>212</v>
       </c>
@@ -2557,10 +2611,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="12"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="11"/>
       <c r="F68" s="8" t="s">
         <v>213</v>
       </c>
@@ -2569,10 +2623,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="12"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="11"/>
       <c r="F69" s="3" t="s">
         <v>185</v>
       </c>
@@ -2583,15 +2637,15 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="11" t="s">
+      <c r="B70" s="11"/>
+      <c r="C70" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="E70" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="E70" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>PrgmSrch.jsp</v>
       </c>
       <c r="F70" s="3" t="s">
@@ -2602,10 +2656,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="5"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="12"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="11"/>
       <c r="F71" s="3" t="s">
         <v>183</v>
       </c>
@@ -2614,10 +2668,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="5"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="12"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="3" t="s">
         <v>185</v>
       </c>
@@ -2626,10 +2680,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="5"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="12"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="11"/>
       <c r="F73" s="3" t="s">
         <v>186</v>
       </c>
@@ -2638,10 +2692,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="12"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="11"/>
       <c r="F74" s="8" t="s">
         <v>189</v>
       </c>
@@ -2650,15 +2704,15 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="5"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="11"/>
+      <c r="C75" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E75" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="E75" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>PrgmResrv.jsp</v>
       </c>
       <c r="F75" s="3" t="s">
@@ -2669,10 +2723,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="5"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="12"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="11"/>
       <c r="F76" s="3" t="s">
         <v>214</v>
       </c>
@@ -2681,10 +2735,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="12"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="11"/>
       <c r="F77" s="3" t="s">
         <v>215</v>
       </c>
@@ -2693,10 +2747,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="12"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="11"/>
       <c r="F78" s="3" t="s">
         <v>217</v>
       </c>
@@ -2705,10 +2759,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="12"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="11"/>
       <c r="F79" s="3" t="s">
         <v>185</v>
       </c>
@@ -2719,15 +2773,15 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="11" t="s">
+      <c r="B80" s="11"/>
+      <c r="C80" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="E80" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="E80" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>PayInfo.jsp</v>
       </c>
       <c r="F80" s="3" t="s">
@@ -2738,10 +2792,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="12"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="11"/>
       <c r="F81" s="3" t="s">
         <v>222</v>
       </c>
@@ -2750,10 +2804,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="12"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="11"/>
       <c r="F82" s="3" t="s">
         <v>223</v>
       </c>
@@ -2762,10 +2816,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="12"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="11"/>
       <c r="F83" s="3" t="s">
         <v>224</v>
       </c>
@@ -2774,10 +2828,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="5"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="12"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="11"/>
       <c r="F84" s="3" t="s">
         <v>225</v>
       </c>
@@ -2786,7 +2840,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="5"/>
-      <c r="B85" s="12"/>
+      <c r="B85" s="11"/>
       <c r="C85" s="1" t="s">
         <v>227</v>
       </c>
@@ -2794,7 +2848,7 @@
         <v>228</v>
       </c>
       <c r="E85" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>PayCmplt.jsp</v>
       </c>
       <c r="F85" s="3" t="s">
@@ -2802,27 +2856,30 @@
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="B2:B85"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="E80:E84"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="E44:E48"/>
+  <mergeCells count="45">
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="D55:D60"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="E55:E60"/>
     <mergeCell ref="E61:E63"/>
     <mergeCell ref="E64:E69"/>
@@ -2836,25 +2893,19 @@
     <mergeCell ref="D64:D69"/>
     <mergeCell ref="C64:C69"/>
     <mergeCell ref="D70:D74"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="D55:D60"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="B2:B85"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="E80:E84"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="E44:E48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Foreservation_ViewList.xlsx
+++ b/document/Foreservation_ViewList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6180E1A9-B3D7-4826-A0B4-DF0BAB270B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4750F684-CE28-42F8-B425-E48AFC7B1F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1143,7 +1143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1175,16 +1175,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1528,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF753CA-3B43-42CB-99AB-2EC6963C2F06}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1572,10 +1569,10 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>174</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1593,8 +1590,8 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="5" t="s">
         <v>272</v>
       </c>
@@ -1610,8 +1607,8 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="5" t="s">
         <v>275</v>
       </c>
@@ -1627,8 +1624,8 @@
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="5" t="s">
         <v>276</v>
       </c>
@@ -1644,8 +1641,8 @@
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="5" t="s">
         <v>277</v>
       </c>
@@ -1661,8 +1658,8 @@
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="5" t="s">
         <v>286</v>
       </c>
@@ -1680,8 +1677,8 @@
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="5" t="s">
         <v>290</v>
       </c>
@@ -1697,8 +1694,8 @@
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="5" t="s">
         <v>291</v>
       </c>
@@ -1714,12 +1711,12 @@
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E10" s="14" t="str">
+      <c r="E10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>NavQnaList.jsp</v>
       </c>
@@ -1731,12 +1728,12 @@
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E11" s="14" t="str">
+      <c r="E11" s="5" t="str">
         <f t="shared" si="1"/>
         <v>NavMyInfo.jsp</v>
       </c>
@@ -1748,12 +1745,12 @@
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E12" s="14" t="str">
+      <c r="E12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>NavWidrw.jsp</v>
       </c>
@@ -1765,7 +1762,7 @@
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
-      <c r="B13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="5" t="s">
         <v>173</v>
       </c>
@@ -1782,11 +1779,11 @@
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>180</v>
       </c>
       <c r="E14" s="13" t="str">
@@ -1801,9 +1798,9 @@
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="13"/>
       <c r="F15" s="9" t="s">
         <v>269</v>
@@ -1813,9 +1810,9 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="9" t="s">
         <v>231</v>
@@ -1825,9 +1822,9 @@
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="13"/>
       <c r="F17" s="9" t="s">
         <v>270</v>
@@ -1837,9 +1834,9 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="13"/>
       <c r="F18" s="9" t="s">
         <v>224</v>
@@ -1851,9 +1848,9 @@
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="13"/>
       <c r="F19" s="9" t="s">
         <v>170</v>
@@ -1863,7 +1860,7 @@
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="B20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="5" t="s">
         <v>175</v>
       </c>
@@ -1880,7 +1877,7 @@
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="5" t="s">
         <v>177</v>
       </c>
@@ -1897,7 +1894,7 @@
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="5" t="s">
         <v>176</v>
       </c>
@@ -1914,11 +1911,11 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>236</v>
       </c>
       <c r="E23" s="13" t="str">
@@ -1935,9 +1932,9 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="13"/>
       <c r="F24" s="3" t="s">
         <v>223</v>
@@ -1949,9 +1946,9 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="13"/>
       <c r="F25" s="3" t="s">
         <v>225</v>
@@ -1963,9 +1960,9 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="13"/>
       <c r="F26" s="3" t="s">
         <v>238</v>
@@ -1977,14 +1974,14 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E27" s="11" t="str">
+      <c r="E27" s="12" t="str">
         <f>D27&amp;".jsp"</f>
         <v>ResrvCancle.jsp</v>
       </c>
@@ -1996,10 +1993,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="3" t="s">
         <v>242</v>
       </c>
@@ -2008,14 +2005,14 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E29" s="11" t="str">
+      <c r="E29" s="12" t="str">
         <f t="shared" ref="E29:E43" si="3">D29&amp;".jsp"</f>
         <v>ResrvInfo.jsp</v>
       </c>
@@ -2027,10 +2024,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="3" t="s">
         <v>243</v>
       </c>
@@ -2039,10 +2036,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="3" t="s">
         <v>246</v>
       </c>
@@ -2051,10 +2048,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="3" t="s">
         <v>245</v>
       </c>
@@ -2063,14 +2060,14 @@
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
-      <c r="B33" s="11"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="1" t="s">
         <v>233</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E33" s="5" t="str">
+      <c r="E33" s="10" t="str">
         <f t="shared" ref="E33" si="4">D33&amp;".jsp"</f>
         <v>JimList.jsp</v>
       </c>
@@ -2084,14 +2081,14 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12" t="s">
+      <c r="B34" s="12"/>
+      <c r="C34" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E34" s="11" t="str">
+      <c r="E34" s="12" t="str">
         <f t="shared" si="3"/>
         <v>Qnalist.jsp</v>
       </c>
@@ -2105,10 +2102,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="3" t="s">
         <v>251</v>
       </c>
@@ -2119,10 +2116,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="3" t="s">
         <v>252</v>
       </c>
@@ -2133,14 +2130,14 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="12"/>
+      <c r="C37" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E37" s="11" t="str">
+      <c r="E37" s="12" t="str">
         <f t="shared" si="3"/>
         <v>QnaReg.jsp</v>
       </c>
@@ -2152,10 +2149,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="3" t="s">
         <v>242</v>
       </c>
@@ -2164,7 +2161,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
-      <c r="B39" s="11"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="1" t="s">
         <v>234</v>
       </c>
@@ -2185,14 +2182,14 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12" t="s">
+      <c r="B40" s="12"/>
+      <c r="C40" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="E40" s="11" t="str">
+      <c r="E40" s="12" t="str">
         <f t="shared" si="3"/>
         <v>MyInfoEdit.jsp</v>
       </c>
@@ -2204,10 +2201,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="3" t="s">
         <v>260</v>
       </c>
@@ -2216,10 +2213,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="3" t="s">
         <v>261</v>
       </c>
@@ -2228,7 +2225,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
-      <c r="B43" s="11"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
         <v>235</v>
       </c>
@@ -2249,14 +2246,14 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E44" s="11" t="str">
+      <c r="E44" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Login.jsp</v>
       </c>
@@ -2268,10 +2265,10 @@
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="9" t="s">
         <v>193</v>
       </c>
@@ -2280,10 +2277,10 @@
     </row>
     <row r="46" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="9" t="s">
         <v>194</v>
       </c>
@@ -2292,10 +2289,10 @@
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
       <c r="F47" s="9" t="s">
         <v>195</v>
       </c>
@@ -2304,10 +2301,10 @@
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
       <c r="F48" s="9" t="s">
         <v>196</v>
       </c>
@@ -2316,8 +2313,8 @@
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11" t="s">
+      <c r="B49" s="12"/>
+      <c r="C49" s="12" t="s">
         <v>171</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -2335,8 +2332,8 @@
     </row>
     <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="5" t="s">
         <v>198</v>
       </c>
@@ -2352,8 +2349,8 @@
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="5" t="s">
         <v>199</v>
       </c>
@@ -2369,8 +2366,8 @@
     </row>
     <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="5" t="s">
         <v>200</v>
       </c>
@@ -2386,7 +2383,7 @@
     </row>
     <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
-      <c r="B53" s="11"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="5" t="s">
         <v>279</v>
       </c>
@@ -2403,7 +2400,7 @@
     </row>
     <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
-      <c r="B54" s="11"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="5" t="s">
         <v>280</v>
       </c>
@@ -2420,14 +2417,14 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12" t="s">
+      <c r="B55" s="12"/>
+      <c r="C55" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E55" s="11" t="str">
+      <c r="E55" s="12" t="str">
         <f t="shared" si="2"/>
         <v>GnrSrch.jsp</v>
       </c>
@@ -2441,10 +2438,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12"/>
       <c r="F56" s="3" t="s">
         <v>183</v>
       </c>
@@ -2455,10 +2452,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="12"/>
       <c r="F57" s="3" t="s">
         <v>185</v>
       </c>
@@ -2469,10 +2466,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12"/>
       <c r="F58" s="3" t="s">
         <v>186</v>
       </c>
@@ -2483,10 +2480,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
       <c r="F59" s="8" t="s">
         <v>190</v>
       </c>
@@ -2497,10 +2494,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="3" t="s">
         <v>184</v>
       </c>
@@ -2511,14 +2508,14 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12" t="s">
+      <c r="B61" s="12"/>
+      <c r="C61" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E61" s="11" t="str">
+      <c r="E61" s="12" t="str">
         <f t="shared" si="2"/>
         <v>MonthSrch.jsp</v>
       </c>
@@ -2530,10 +2527,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12"/>
       <c r="F62" s="3" t="s">
         <v>183</v>
       </c>
@@ -2542,10 +2539,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="11"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="3" t="s">
         <v>191</v>
       </c>
@@ -2556,14 +2553,14 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="12" t="s">
+      <c r="B64" s="12"/>
+      <c r="C64" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E64" s="11" t="str">
+      <c r="E64" s="12" t="str">
         <f t="shared" si="2"/>
         <v>GnrResrv.jsp</v>
       </c>
@@ -2575,10 +2572,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="5"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
       <c r="F65" s="3" t="s">
         <v>210</v>
       </c>
@@ -2587,10 +2584,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="5"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12"/>
       <c r="F66" s="3" t="s">
         <v>211</v>
       </c>
@@ -2599,10 +2596,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="5"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12"/>
       <c r="F67" s="3" t="s">
         <v>212</v>
       </c>
@@ -2611,10 +2608,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="11"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12"/>
       <c r="F68" s="8" t="s">
         <v>213</v>
       </c>
@@ -2623,10 +2620,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="3" t="s">
         <v>185</v>
       </c>
@@ -2637,14 +2634,14 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="12" t="s">
+      <c r="B70" s="12"/>
+      <c r="C70" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E70" s="11" t="str">
+      <c r="E70" s="12" t="str">
         <f t="shared" si="2"/>
         <v>PrgmSrch.jsp</v>
       </c>
@@ -2656,10 +2653,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="5"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="11"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
       <c r="F71" s="3" t="s">
         <v>183</v>
       </c>
@@ -2668,10 +2665,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="5"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="11"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
       <c r="F72" s="3" t="s">
         <v>185</v>
       </c>
@@ -2680,10 +2677,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="5"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12"/>
       <c r="F73" s="3" t="s">
         <v>186</v>
       </c>
@@ -2692,10 +2689,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12"/>
       <c r="F74" s="8" t="s">
         <v>189</v>
       </c>
@@ -2704,14 +2701,14 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="5"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="12" t="s">
+      <c r="B75" s="12"/>
+      <c r="C75" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E75" s="11" t="str">
+      <c r="E75" s="12" t="str">
         <f t="shared" si="2"/>
         <v>PrgmResrv.jsp</v>
       </c>
@@ -2723,10 +2720,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="5"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12"/>
       <c r="F76" s="3" t="s">
         <v>214</v>
       </c>
@@ -2735,10 +2732,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="11"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12"/>
       <c r="F77" s="3" t="s">
         <v>215</v>
       </c>
@@ -2747,10 +2744,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12"/>
       <c r="F78" s="3" t="s">
         <v>217</v>
       </c>
@@ -2759,10 +2756,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="11"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="12"/>
       <c r="F79" s="3" t="s">
         <v>185</v>
       </c>
@@ -2773,14 +2770,14 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="12" t="s">
+      <c r="B80" s="12"/>
+      <c r="C80" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E80" s="11" t="str">
+      <c r="E80" s="12" t="str">
         <f t="shared" si="2"/>
         <v>PayInfo.jsp</v>
       </c>
@@ -2792,10 +2789,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="11"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12"/>
       <c r="F81" s="3" t="s">
         <v>222</v>
       </c>
@@ -2804,10 +2801,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="11"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12"/>
       <c r="F82" s="3" t="s">
         <v>223</v>
       </c>
@@ -2816,10 +2813,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="11"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="12"/>
       <c r="F83" s="3" t="s">
         <v>224</v>
       </c>
@@ -2828,10 +2825,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="5"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="11"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="12"/>
       <c r="F84" s="3" t="s">
         <v>225</v>
       </c>
@@ -2840,7 +2837,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="5"/>
-      <c r="B85" s="11"/>
+      <c r="B85" s="12"/>
       <c r="C85" s="1" t="s">
         <v>227</v>
       </c>
@@ -2861,11 +2858,32 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="B2:B85"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="E80:E84"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E64:E69"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="D70:D74"/>
     <mergeCell ref="C2:C12"/>
     <mergeCell ref="D23:D26"/>
     <mergeCell ref="C23:C26"/>
@@ -2880,32 +2898,11 @@
     <mergeCell ref="C14:C19"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="E64:E69"/>
-    <mergeCell ref="E70:E74"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="B2:B85"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="E80:E84"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C70:C74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Foreservation_ViewList.xlsx
+++ b/document/Foreservation_ViewList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4750F684-CE28-42F8-B425-E48AFC7B1F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0450A038-0B1D-4105-BB80-B978E07AB021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1175,13 +1175,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1525,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF753CA-3B43-42CB-99AB-2EC6963C2F06}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:E36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1569,10 +1569,10 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>174</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1590,8 +1590,8 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="5" t="s">
         <v>272</v>
       </c>
@@ -1607,8 +1607,8 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="5" t="s">
         <v>275</v>
       </c>
@@ -1624,8 +1624,8 @@
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="5" t="s">
         <v>276</v>
       </c>
@@ -1641,8 +1641,8 @@
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5" t="s">
         <v>277</v>
       </c>
@@ -1658,8 +1658,8 @@
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="5" t="s">
         <v>286</v>
       </c>
@@ -1677,8 +1677,8 @@
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="5" t="s">
         <v>290</v>
       </c>
@@ -1694,8 +1694,8 @@
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="5" t="s">
         <v>291</v>
       </c>
@@ -1711,8 +1711,8 @@
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
         <v>293</v>
       </c>
@@ -1728,12 +1728,12 @@
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E11" s="5" t="str">
+      <c r="E11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>NavMyInfo.jsp</v>
       </c>
@@ -1745,12 +1745,12 @@
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E12" s="5" t="str">
+      <c r="E12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>NavWidrw.jsp</v>
       </c>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="5" t="s">
         <v>173</v>
       </c>
@@ -1779,14 +1779,14 @@
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="13" t="str">
+      <c r="E14" s="12" t="str">
         <f t="shared" si="2"/>
         <v>ForeservationInfo.jsp</v>
       </c>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="9" t="s">
         <v>269</v>
       </c>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="9" t="s">
         <v>231</v>
       </c>
@@ -1822,10 +1822,10 @@
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="9" t="s">
         <v>270</v>
       </c>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="9" t="s">
         <v>224</v>
       </c>
@@ -1848,10 +1848,10 @@
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="9" t="s">
         <v>170</v>
       </c>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="B20" s="12"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="5" t="s">
         <v>175</v>
       </c>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="5" t="s">
         <v>177</v>
       </c>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="12"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="5" t="s">
         <v>176</v>
       </c>
@@ -1911,14 +1911,14 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E23" s="13" t="str">
+      <c r="E23" s="12" t="str">
         <f>D23&amp;".jsp"</f>
         <v>MyResrv.jsp</v>
       </c>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="3" t="s">
         <v>223</v>
       </c>
@@ -1946,10 +1946,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="13"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="3" t="s">
         <v>225</v>
       </c>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="3" t="s">
         <v>238</v>
       </c>
@@ -1974,14 +1974,14 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E27" s="12" t="str">
+      <c r="E27" s="11" t="str">
         <f>D27&amp;".jsp"</f>
         <v>ResrvCancle.jsp</v>
       </c>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="3" t="s">
         <v>242</v>
       </c>
@@ -2005,14 +2005,14 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="E29" s="12" t="str">
+      <c r="E29" s="11" t="str">
         <f t="shared" ref="E29:E43" si="3">D29&amp;".jsp"</f>
         <v>ResrvInfo.jsp</v>
       </c>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="3" t="s">
         <v>243</v>
       </c>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="3" t="s">
         <v>246</v>
       </c>
@@ -2048,10 +2048,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="3" t="s">
         <v>245</v>
       </c>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
-      <c r="B33" s="12"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="1" t="s">
         <v>233</v>
       </c>
@@ -2081,11 +2081,11 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="13" t="s">
         <v>292</v>
       </c>
       <c r="E34" s="12" t="str">
@@ -2102,9 +2102,9 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="12"/>
       <c r="F35" s="3" t="s">
         <v>251</v>
@@ -2116,9 +2116,9 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="12"/>
       <c r="F36" s="3" t="s">
         <v>252</v>
@@ -2130,14 +2130,14 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="11" t="s">
+      <c r="B37" s="11"/>
+      <c r="C37" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E37" s="12" t="str">
+      <c r="E37" s="11" t="str">
         <f t="shared" si="3"/>
         <v>QnaReg.jsp</v>
       </c>
@@ -2149,10 +2149,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="3" t="s">
         <v>242</v>
       </c>
@@ -2161,14 +2161,14 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
-      <c r="B39" s="12"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="1" t="s">
         <v>234</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E39" s="5" t="str">
+      <c r="E39" s="10" t="str">
         <f t="shared" si="3"/>
         <v>MyInfo.jsp</v>
       </c>
@@ -2182,14 +2182,14 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="11" t="s">
+      <c r="B40" s="11"/>
+      <c r="C40" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="E40" s="12" t="str">
+      <c r="E40" s="11" t="str">
         <f t="shared" si="3"/>
         <v>MyInfoEdit.jsp</v>
       </c>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="3" t="s">
         <v>260</v>
       </c>
@@ -2213,10 +2213,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="3" t="s">
         <v>261</v>
       </c>
@@ -2225,14 +2225,14 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E43" s="5" t="str">
+      <c r="E43" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Widrw.jsp</v>
       </c>
@@ -2246,14 +2246,14 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E44" s="12" t="str">
+      <c r="E44" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Login.jsp</v>
       </c>
@@ -2265,10 +2265,10 @@
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="9" t="s">
         <v>193</v>
       </c>
@@ -2277,10 +2277,10 @@
     </row>
     <row r="46" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="9" t="s">
         <v>194</v>
       </c>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
       <c r="F47" s="9" t="s">
         <v>195</v>
       </c>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="9" t="s">
         <v>196</v>
       </c>
@@ -2313,8 +2313,8 @@
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12" t="s">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11" t="s">
         <v>171</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -2332,8 +2332,8 @@
     </row>
     <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="5" t="s">
         <v>198</v>
       </c>
@@ -2349,8 +2349,8 @@
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="5" t="s">
         <v>199</v>
       </c>
@@ -2366,8 +2366,8 @@
     </row>
     <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="5" t="s">
         <v>200</v>
       </c>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
-      <c r="B53" s="12"/>
+      <c r="B53" s="11"/>
       <c r="C53" s="5" t="s">
         <v>279</v>
       </c>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
-      <c r="B54" s="12"/>
+      <c r="B54" s="11"/>
       <c r="C54" s="5" t="s">
         <v>280</v>
       </c>
@@ -2417,14 +2417,14 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="11" t="s">
+      <c r="B55" s="11"/>
+      <c r="C55" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E55" s="12" t="str">
+      <c r="E55" s="11" t="str">
         <f t="shared" si="2"/>
         <v>GnrSrch.jsp</v>
       </c>
@@ -2438,10 +2438,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="12"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="3" t="s">
         <v>183</v>
       </c>
@@ -2452,10 +2452,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="12"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="11"/>
       <c r="F57" s="3" t="s">
         <v>185</v>
       </c>
@@ -2466,10 +2466,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="12"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="3" t="s">
         <v>186</v>
       </c>
@@ -2480,10 +2480,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="12"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="11"/>
       <c r="F59" s="8" t="s">
         <v>190</v>
       </c>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="11"/>
       <c r="F60" s="3" t="s">
         <v>184</v>
       </c>
@@ -2508,14 +2508,14 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="11" t="s">
+      <c r="B61" s="11"/>
+      <c r="C61" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="E61" s="12" t="str">
+      <c r="E61" s="11" t="str">
         <f t="shared" si="2"/>
         <v>MonthSrch.jsp</v>
       </c>
@@ -2527,10 +2527,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="12"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="11"/>
       <c r="F62" s="3" t="s">
         <v>183</v>
       </c>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="12"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="11"/>
       <c r="F63" s="3" t="s">
         <v>191</v>
       </c>
@@ -2553,14 +2553,14 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="11" t="s">
+      <c r="B64" s="11"/>
+      <c r="C64" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E64" s="12" t="str">
+      <c r="E64" s="11" t="str">
         <f t="shared" si="2"/>
         <v>GnrResrv.jsp</v>
       </c>
@@ -2572,10 +2572,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="5"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="12"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="11"/>
       <c r="F65" s="3" t="s">
         <v>210</v>
       </c>
@@ -2584,10 +2584,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="5"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="12"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="3" t="s">
         <v>211</v>
       </c>
@@ -2596,10 +2596,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="5"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="12"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="3" t="s">
         <v>212</v>
       </c>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="12"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="11"/>
       <c r="F68" s="8" t="s">
         <v>213</v>
       </c>
@@ -2620,10 +2620,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="12"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="11"/>
       <c r="F69" s="3" t="s">
         <v>185</v>
       </c>
@@ -2634,14 +2634,14 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="11" t="s">
+      <c r="B70" s="11"/>
+      <c r="C70" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="E70" s="12" t="str">
+      <c r="E70" s="11" t="str">
         <f t="shared" si="2"/>
         <v>PrgmSrch.jsp</v>
       </c>
@@ -2653,10 +2653,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="5"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="12"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="11"/>
       <c r="F71" s="3" t="s">
         <v>183</v>
       </c>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="5"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="12"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="3" t="s">
         <v>185</v>
       </c>
@@ -2677,10 +2677,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="5"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="12"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="11"/>
       <c r="F73" s="3" t="s">
         <v>186</v>
       </c>
@@ -2689,10 +2689,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="12"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="11"/>
       <c r="F74" s="8" t="s">
         <v>189</v>
       </c>
@@ -2701,14 +2701,14 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="5"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="11"/>
+      <c r="C75" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="E75" s="12" t="str">
+      <c r="E75" s="11" t="str">
         <f t="shared" si="2"/>
         <v>PrgmResrv.jsp</v>
       </c>
@@ -2720,10 +2720,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="5"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="12"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="11"/>
       <c r="F76" s="3" t="s">
         <v>214</v>
       </c>
@@ -2732,10 +2732,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="12"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="11"/>
       <c r="F77" s="3" t="s">
         <v>215</v>
       </c>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="12"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="11"/>
       <c r="F78" s="3" t="s">
         <v>217</v>
       </c>
@@ -2756,10 +2756,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="12"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="11"/>
       <c r="F79" s="3" t="s">
         <v>185</v>
       </c>
@@ -2770,14 +2770,14 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="11" t="s">
+      <c r="B80" s="11"/>
+      <c r="C80" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E80" s="12" t="str">
+      <c r="E80" s="11" t="str">
         <f t="shared" si="2"/>
         <v>PayInfo.jsp</v>
       </c>
@@ -2789,10 +2789,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="12"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="11"/>
       <c r="F81" s="3" t="s">
         <v>222</v>
       </c>
@@ -2801,10 +2801,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="12"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="11"/>
       <c r="F82" s="3" t="s">
         <v>223</v>
       </c>
@@ -2813,10 +2813,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="12"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="11"/>
       <c r="F83" s="3" t="s">
         <v>224</v>
       </c>
@@ -2825,10 +2825,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="5"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="12"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="11"/>
       <c r="F84" s="3" t="s">
         <v>225</v>
       </c>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="5"/>
-      <c r="B85" s="12"/>
+      <c r="B85" s="11"/>
       <c r="C85" s="1" t="s">
         <v>227</v>
       </c>
@@ -2858,6 +2858,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="D55:D60"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="D70:D74"/>
     <mergeCell ref="B2:B85"/>
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="E37:E38"/>
@@ -2874,35 +2903,6 @@
     <mergeCell ref="E55:E60"/>
     <mergeCell ref="E61:E63"/>
     <mergeCell ref="E64:E69"/>
-    <mergeCell ref="E70:E74"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="D55:D60"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C70:C74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Foreservation_ViewList.xlsx
+++ b/document/Foreservation_ViewList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0450A038-0B1D-4105-BB80-B978E07AB021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DA3A15-AC6F-468F-8A4C-D29A5311A1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="302">
   <si>
     <t>OBJECT</t>
   </si>
@@ -955,10 +955,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NavResrv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1009,10 +1005,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NavMypage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024.03.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1048,6 +1040,31 @@
   </si>
   <si>
     <t>Widrw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반예약(숙박예약)/프로그램예약/월별예약조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반예약(숙박예약)</t>
+  </si>
+  <si>
+    <t>프로그램예약</t>
+  </si>
+  <si>
+    <t>월별예약조회</t>
+  </si>
+  <si>
+    <t>NavGnrSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavMonthSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NavPrgmSrch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1175,13 +1192,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1523,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF753CA-3B43-42CB-99AB-2EC6963C2F06}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E42"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1569,1340 +1586,1385 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>174</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E2" s="10" t="str">
         <f>D2&amp;".jsp"</f>
         <v>NavMain.jsp</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E3" s="5" t="str">
-        <f>D3&amp;".jsp"</f>
-        <v>NavResrv.jsp</v>
-      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="5" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="E4" s="10" t="str">
-        <f t="shared" ref="E4" si="0">D4&amp;".jsp"</f>
-        <v>NavSiteInfo.jsp</v>
+        <f t="shared" ref="E4:E6" si="0">D4&amp;".jsp"</f>
+        <v>NavGnrSrch.jsp</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E5" s="10" t="str">
-        <f>D5&amp;".jsp"</f>
-        <v>NavRoomInfo.jsp</v>
+        <v>300</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>NavMonthSrch.jsp</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" s="10" t="str">
-        <f>D6&amp;".jsp"</f>
-        <v>NavPrgmInfo.jsp</v>
+        <v>301</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>NavPrgmSrch.jsp</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="5" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E7" s="10" t="str">
-        <f>D7&amp;".jsp"</f>
-        <v>NavMypage.jsp</v>
+        <f t="shared" ref="E7" si="1">D7&amp;".jsp"</f>
+        <v>NavSiteInfo.jsp</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>285</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="5" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="E8" s="10" t="str">
-        <f t="shared" ref="E8:E12" si="1">D8&amp;".jsp"</f>
-        <v>NavMyResrv.jsp</v>
+        <f>D8&amp;".jsp"</f>
+        <v>NavRoomInfo.jsp</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="5" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E9" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>NavJimList.jsp</v>
+        <f>D9&amp;".jsp"</f>
+        <v>NavPrgmInfo.jsp</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E10" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>NavQnaList.jsp</v>
-      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="G10" s="5"/>
+        <v>224</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E11" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>NavMyInfo.jsp</v>
+        <f t="shared" ref="E11:E15" si="2">D11&amp;".jsp"</f>
+        <v>NavMyResrv.jsp</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E12" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>NavWidrw.jsp</v>
+        <f t="shared" si="2"/>
+        <v>NavJimList.jsp</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="5" t="s">
-        <v>173</v>
-      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="5" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E13" s="10" t="str">
-        <f t="shared" ref="E13:E85" si="2">D13&amp;".jsp"</f>
-        <v>Footer.jsp</v>
-      </c>
-      <c r="F13" s="9"/>
+        <f t="shared" si="2"/>
+        <v>NavQnaList.jsp</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>250</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E14" s="12" t="str">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>ForeservationInfo.jsp</v>
+        <v>NavMyInfo.jsp</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>NavWidrw.jsp</v>
+      </c>
       <c r="F15" s="9" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="9" t="s">
-        <v>231</v>
-      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" s="10" t="str">
+        <f t="shared" ref="E16:E88" si="3">D16&amp;".jsp"</f>
+        <v>Footer.jsp</v>
+      </c>
+      <c r="F16" s="9"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>ForeservationInfo.jsp</v>
+      </c>
       <c r="F17" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="G17" s="5"/>
+        <v>230</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>285</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="9" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>SiteInfo.jsp</v>
-      </c>
-      <c r="F20" s="9"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="9" t="s">
+        <v>270</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>RoomInfo.jsp</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E22" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>PrgmInfo.jsp</v>
-      </c>
-      <c r="F22" s="9"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="9" t="s">
+        <v>170</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23" s="12" t="str">
-        <f>D23&amp;".jsp"</f>
-        <v>MyResrv.jsp</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B23" s="12"/>
+      <c r="C23" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>SiteInfo.jsp</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B24" s="12"/>
+      <c r="C24" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>RoomInfo.jsp</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="1" t="s">
-        <v>287</v>
-      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E25" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>PrgmInfo.jsp</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26" s="13" t="str">
+        <f>D26&amp;".jsp"</f>
+        <v>MyResrv.jsp</v>
+      </c>
       <c r="F26" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="E27" s="11" t="str">
-        <f>D27&amp;".jsp"</f>
-        <v>ResrvCancle.jsp</v>
-      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="3" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="3" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="E29" s="11" t="str">
-        <f t="shared" ref="E29:E43" si="3">D29&amp;".jsp"</f>
-        <v>ResrvInfo.jsp</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30" s="12" t="str">
+        <f>D30&amp;".jsp"</f>
+        <v>ResrvCancle.jsp</v>
+      </c>
       <c r="F30" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E32" s="12" t="str">
+        <f t="shared" ref="E32:E46" si="4">D32&amp;".jsp"</f>
+        <v>ResrvInfo.jsp</v>
+      </c>
       <c r="F32" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E33" s="10" t="str">
-        <f t="shared" ref="E33" si="4">D33&amp;".jsp"</f>
-        <v>JimList.jsp</v>
-      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="1" t="s">
-        <v>287</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="E34" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>Qnalist.jsp</v>
-      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="3" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="G34" s="3"/>
-      <c r="H34" s="1" t="s">
-        <v>287</v>
-      </c>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="12"/>
       <c r="F35" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E36" s="10" t="str">
+        <f t="shared" ref="E36" si="5">D36&amp;".jsp"</f>
+        <v>JimList.jsp</v>
+      </c>
       <c r="F36" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G36" s="3"/>
+        <v>249</v>
+      </c>
+      <c r="G36" s="5"/>
       <c r="H36" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="E37" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>QnaReg.jsp</v>
+      <c r="B37" s="12"/>
+      <c r="C37" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E37" s="13" t="str">
+        <f t="shared" si="4"/>
+        <v>Qnalist.jsp</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E39" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>MyInfo.jsp</v>
-      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="3" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="E40" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>MyInfoEdit.jsp</v>
+      <c r="B40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E40" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>QnaReg.jsp</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="3" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E42" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>MyInfo.jsp</v>
+      </c>
       <c r="F42" s="3" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="G42" s="3"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E43" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>Widrw.jsp</v>
+      <c r="B43" s="12"/>
+      <c r="C43" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E43" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>MyInfoEdit.jsp</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="G43" s="3"/>
-      <c r="H43" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E44" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>Login.jsp</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="12"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
-      <c r="B45" s="11"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="E45" s="12"/>
+      <c r="F45" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E46" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>Widrw.jsp</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E47" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Login.jsp</v>
+      </c>
       <c r="F47" s="9" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
       <c r="F48" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E49" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Acnt_RegAgr.jsp</v>
-      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="9" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E50" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Acnt_RegChk.jsp</v>
-      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
       <c r="F50" s="9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E51" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Acnt_RegInfo.jsp</v>
-      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12" t="s">
+        <v>171</v>
+      </c>
       <c r="D52" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E52" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Acnt_RegCom.jsp</v>
+        <f t="shared" si="3"/>
+        <v>Acnt_RegAgr.jsp</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="5" t="s">
-        <v>282</v>
+        <v>198</v>
       </c>
       <c r="E53" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>FindID.jsp</v>
-      </c>
-      <c r="F53" s="9"/>
+        <f t="shared" si="3"/>
+        <v>Acnt_RegChk.jsp</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="5" t="s">
-        <v>280</v>
-      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="5" t="s">
-        <v>283</v>
+        <v>199</v>
       </c>
       <c r="E54" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>FindPw.jsp</v>
-      </c>
-      <c r="F54" s="9"/>
+        <f t="shared" si="3"/>
+        <v>Acnt_RegInfo.jsp</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="E55" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>GnrSrch.jsp</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>Acnt_RegCom.jsp</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B56" s="12"/>
+      <c r="C56" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E56" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>FindID.jsp</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="1" t="s">
-        <v>287</v>
-      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E57" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>FindPw.jsp</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E58" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>GnrSrch.jsp</v>
+      </c>
       <c r="F58" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="8" t="s">
-        <v>190</v>
+      <c r="B59" s="12"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E61" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>MonthSrch.jsp</v>
-      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="12"/>
       <c r="F61" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G61" s="3"/>
-      <c r="H61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="3" t="s">
-        <v>183</v>
+      <c r="B62" s="12"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="G62" s="3"/>
-      <c r="H62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="11"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="1" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E64" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>GnrResrv.jsp</v>
+      <c r="B64" s="12"/>
+      <c r="C64" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E64" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>MonthSrch.jsp</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="5"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
       <c r="F65" s="3" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="5"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12"/>
       <c r="F66" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="G66" s="3"/>
-      <c r="H66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="5"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>GnrResrv.jsp</v>
+      </c>
       <c r="F67" s="3" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="8" t="s">
-        <v>213</v>
+      <c r="B68" s="12"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="3" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="G69" s="3"/>
-      <c r="H69" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="E70" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>PrgmSrch.jsp</v>
-      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12"/>
       <c r="F70" s="3" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="5"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="3" t="s">
-        <v>183</v>
+      <c r="B71" s="12"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="5"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="11"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
       <c r="F72" s="3" t="s">
         <v>185</v>
       </c>
       <c r="G72" s="3"/>
-      <c r="H72" s="1"/>
+      <c r="H72" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="5"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E73" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>PrgmSrch.jsp</v>
+      </c>
       <c r="F73" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="8" t="s">
-        <v>189</v>
+      <c r="B74" s="12"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="5"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E75" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>PrgmResrv.jsp</v>
-      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="12"/>
       <c r="F75" s="3" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="5"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12"/>
       <c r="F76" s="3" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="3" t="s">
-        <v>215</v>
+      <c r="B77" s="12"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E78" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>PrgmResrv.jsp</v>
+      </c>
       <c r="F78" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="11"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="12"/>
       <c r="F79" s="3" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="G79" s="3"/>
-      <c r="H79" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="E80" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>PayInfo.jsp</v>
-      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="12"/>
       <c r="F80" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="11"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12"/>
       <c r="F81" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="11"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12"/>
       <c r="F82" s="3" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="G82" s="3"/>
-      <c r="H82" s="1"/>
+      <c r="H82" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="11"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>PayInfo.jsp</v>
+      </c>
       <c r="F83" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="5"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="11"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="12"/>
       <c r="F84" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="5"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="1" t="s">
+      <c r="B85" s="12"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A86" s="5"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A87" s="5"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G87" s="3"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A88" s="5"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E85" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="E88" s="5" t="str">
+        <f t="shared" si="3"/>
         <v>PayCmplt.jsp</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F88" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="1" t="s">
-        <v>284</v>
+      <c r="G88" s="3"/>
+      <c r="H88" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="D55:D60"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E70:E74"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="B2:B85"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="E80:E84"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="E64:E69"/>
+    <mergeCell ref="B2:B88"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="E78:E82"/>
+    <mergeCell ref="E83:E87"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="E58:E63"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="E67:E72"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D67:D72"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="C2:C15"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="C73:C77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Foreservation_ViewList.xlsx
+++ b/document/Foreservation_ViewList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DA3A15-AC6F-468F-8A4C-D29A5311A1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557809A0-6CDF-48ED-A8DF-7C8A6BF282B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="305">
   <si>
     <t>OBJECT</t>
   </si>
@@ -1065,6 +1065,18 @@
   </si>
   <si>
     <t>NavPrgmSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용전 확인사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단 추가항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1192,13 +1204,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1540,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF753CA-3B43-42CB-99AB-2EC6963C2F06}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47:E51"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1586,10 +1598,10 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>174</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1607,8 +1619,8 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="9" t="s">
@@ -1621,8 +1633,8 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="5" t="s">
         <v>299</v>
       </c>
@@ -1638,8 +1650,8 @@
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="5" t="s">
         <v>300</v>
       </c>
@@ -1655,8 +1667,8 @@
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5" t="s">
         <v>301</v>
       </c>
@@ -1672,8 +1684,8 @@
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="5" t="s">
         <v>274</v>
       </c>
@@ -1689,8 +1701,8 @@
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="5" t="s">
         <v>275</v>
       </c>
@@ -1706,8 +1718,8 @@
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="5" t="s">
         <v>276</v>
       </c>
@@ -1723,8 +1735,8 @@
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="5"/>
       <c r="E10" s="10"/>
       <c r="F10" s="9" t="s">
@@ -1737,13 +1749,13 @@
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="5" t="s">
         <v>288</v>
       </c>
       <c r="E11" s="10" t="str">
-        <f t="shared" ref="E11:E15" si="2">D11&amp;".jsp"</f>
+        <f t="shared" ref="E11:E16" si="2">D11&amp;".jsp"</f>
         <v>NavMyResrv.jsp</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -1754,8 +1766,8 @@
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="5" t="s">
         <v>289</v>
       </c>
@@ -1771,8 +1783,8 @@
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="5" t="s">
         <v>291</v>
       </c>
@@ -1788,8 +1800,8 @@
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="5" t="s">
         <v>292</v>
       </c>
@@ -1805,8 +1817,8 @@
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="5" t="s">
         <v>293</v>
       </c>
@@ -1822,133 +1834,135 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="5" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="E16" s="10" t="str">
-        <f t="shared" ref="E16:E88" si="3">D16&amp;".jsp"</f>
-        <v>Footer.jsp</v>
-      </c>
-      <c r="F16" s="9"/>
+        <f t="shared" si="2"/>
+        <v>CheckList.jsp</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>303</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="10" t="str">
+        <f t="shared" ref="E17:E89" si="3">D17&amp;".jsp"</f>
+        <v>Footer.jsp</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="13" t="str">
+      <c r="E18" s="12" t="str">
         <f t="shared" si="3"/>
         <v>ForeservationInfo.jsp</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="5"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="9" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="9" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>284</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G22" s="5"/>
+        <v>224</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="5"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E23" s="10" t="str">
+      <c r="E24" s="10" t="str">
         <f t="shared" si="3"/>
         <v>SiteInfo.jsp</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="5"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>RoomInfo.jsp</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="5"/>
@@ -1956,50 +1970,53 @@
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>277</v>
+        <v>179</v>
       </c>
       <c r="E25" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>PrgmInfo.jsp</v>
+        <v>RoomInfo.jsp</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E26" s="13" t="str">
-        <f>D26&amp;".jsp"</f>
-        <v>MyResrv.jsp</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>PrgmInfo.jsp</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="13"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" s="12" t="str">
+        <f>D27&amp;".jsp"</f>
+        <v>MyResrv.jsp</v>
+      </c>
       <c r="F27" s="3" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="1" t="s">
@@ -2008,12 +2025,12 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="13"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="1" t="s">
@@ -2022,12 +2039,12 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="13"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="3" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="1" t="s">
@@ -2036,140 +2053,140 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E30" s="12" t="str">
-        <f>D30&amp;".jsp"</f>
-        <v>ResrvCancle.jsp</v>
-      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E31" s="11" t="str">
+        <f>D31&amp;".jsp"</f>
+        <v>ResrvCancle.jsp</v>
+      </c>
       <c r="F31" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E32" s="12" t="str">
-        <f t="shared" ref="E32:E46" si="4">D32&amp;".jsp"</f>
-        <v>ResrvInfo.jsp</v>
-      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" s="11" t="str">
+        <f t="shared" ref="E33:E47" si="4">D33&amp;".jsp"</f>
+        <v>ResrvInfo.jsp</v>
+      </c>
       <c r="F33" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="5"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E36" s="10" t="str">
-        <f t="shared" ref="E36" si="5">D36&amp;".jsp"</f>
+      <c r="E37" s="10" t="str">
+        <f t="shared" ref="E37" si="5">D37&amp;".jsp"</f>
         <v>JimList.jsp</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="1" t="s">
+      <c r="G37" s="5"/>
+      <c r="H37" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="5"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="11" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="5"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D38" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="E37" s="13" t="str">
+      <c r="E38" s="12" t="str">
         <f t="shared" si="4"/>
         <v>Qnalist.jsp</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="5"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="1" t="s">
@@ -2178,12 +2195,12 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="13"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="1" t="s">
@@ -2192,320 +2209,320 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="11" t="s">
+      <c r="B40" s="11"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="5"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D41" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E40" s="12" t="str">
+      <c r="E41" s="11" t="str">
         <f t="shared" si="4"/>
         <v>QnaReg.jsp</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="5"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="11"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="5"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E42" s="10" t="str">
+      <c r="E43" s="10" t="str">
         <f t="shared" si="4"/>
         <v>MyInfo.jsp</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="1" t="s">
+      <c r="G43" s="3"/>
+      <c r="H43" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="5"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="11" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="5"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D44" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="E43" s="12" t="str">
+      <c r="E44" s="11" t="str">
         <f t="shared" si="4"/>
         <v>MyInfoEdit.jsp</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="5"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="11"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="5"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E46" s="10" t="str">
+      <c r="E47" s="10" t="str">
         <f t="shared" si="4"/>
         <v>Widrw.jsp</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="1" t="s">
+      <c r="G47" s="3"/>
+      <c r="H47" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="5"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12" t="s">
+    <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="5"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E47" s="12" t="str">
+      <c r="E48" s="11" t="str">
         <f t="shared" si="3"/>
         <v>Login.jsp</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F48" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="5"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="9" t="s">
-        <v>193</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12" t="s">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="5"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E52" s="5" t="str">
+      <c r="E53" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Acnt_RegAgr.jsp</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F53" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="5"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="5" t="s">
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="5"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="5" t="str">
+      <c r="E54" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Acnt_RegChk.jsp</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F54" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="5"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="5" t="s">
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="5"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E54" s="5" t="str">
+      <c r="E55" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Acnt_RegInfo.jsp</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F55" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="5"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="5" t="s">
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="5"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E55" s="5" t="str">
+      <c r="E56" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Acnt_RegCom.jsp</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F56" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="5"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="5" t="s">
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="5"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E56" s="5" t="str">
+      <c r="E57" s="5" t="str">
         <f t="shared" si="3"/>
         <v>FindID.jsp</v>
-      </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="5"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E57" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>FindPw.jsp</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="11" t="s">
+      <c r="B58" s="11"/>
+      <c r="C58" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E58" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>FindPw.jsp</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="5"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D59" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E58" s="12" t="str">
+      <c r="E59" s="11" t="str">
         <f t="shared" si="3"/>
         <v>GnrSrch.jsp</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="5"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="1" t="s">
@@ -2514,12 +2531,12 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="11"/>
       <c r="F60" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="1" t="s">
@@ -2528,12 +2545,12 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="12"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="11"/>
       <c r="F61" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="1" t="s">
@@ -2542,12 +2559,12 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="8" t="s">
-        <v>190</v>
+      <c r="B62" s="11"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="1" t="s">
@@ -2556,12 +2573,12 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="3" t="s">
-        <v>184</v>
+      <c r="B63" s="11"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="1" t="s">
@@ -2570,401 +2587,415 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="11" t="s">
+      <c r="B64" s="11"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" s="5"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D65" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="E64" s="12" t="str">
+      <c r="E65" s="11" t="str">
         <f t="shared" si="3"/>
         <v>MonthSrch.jsp</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A65" s="5"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="5"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="12"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G66" s="3"/>
-      <c r="H66" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="5"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="11" t="s">
+      <c r="B67" s="11"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" s="5"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D68" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E67" s="12" t="str">
+      <c r="E68" s="11" t="str">
         <f t="shared" si="3"/>
         <v>GnrResrv.jsp</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F68" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A68" s="5"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="12"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="11"/>
       <c r="F69" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="12"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="11"/>
       <c r="F70" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="5"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="8" t="s">
-        <v>213</v>
+      <c r="B71" s="11"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="5"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="3" t="s">
-        <v>185</v>
+      <c r="B72" s="11"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="G72" s="3"/>
-      <c r="H72" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="5"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="11" t="s">
+      <c r="B73" s="11"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G73" s="3"/>
+      <c r="H73" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" s="5"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D74" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="E73" s="12" t="str">
+      <c r="E74" s="11" t="str">
         <f t="shared" si="3"/>
         <v>PrgmSrch.jsp</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="G73" s="3"/>
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A74" s="5"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="5"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="12"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="11"/>
       <c r="F75" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="5"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="12"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="11"/>
       <c r="F76" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="8" t="s">
-        <v>189</v>
+      <c r="B77" s="11"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="11" t="s">
+      <c r="B78" s="11"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A79" s="5"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D79" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="E78" s="12" t="str">
+      <c r="E79" s="11" t="str">
         <f t="shared" si="3"/>
         <v>PrgmResrv.jsp</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F79" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A79" s="5"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="12"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="11"/>
       <c r="F80" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="12"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="11"/>
       <c r="F81" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="12"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="11"/>
       <c r="F82" s="3" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="G82" s="3"/>
-      <c r="H82" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="11" t="s">
+      <c r="B83" s="11"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A84" s="5"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D84" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E83" s="12" t="str">
+      <c r="E84" s="11" t="str">
         <f t="shared" si="3"/>
         <v>PayInfo.jsp</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A84" s="5"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="5"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="12"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="11"/>
       <c r="F85" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="5"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="12"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="11"/>
       <c r="F86" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="5"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="12"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="11"/>
       <c r="F87" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="5"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="1" t="s">
+      <c r="B88" s="11"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A89" s="5"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E88" s="5" t="str">
+      <c r="E89" s="5" t="str">
         <f t="shared" si="3"/>
         <v>PayCmplt.jsp</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="1" t="s">
+      <c r="G89" s="3"/>
+      <c r="H89" s="1" t="s">
         <v>283</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B2:B88"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="E78:E82"/>
-    <mergeCell ref="E83:E87"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="E58:E63"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="E67:E72"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D67:D72"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D73:D77"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="C74:C78"/>
     <mergeCell ref="C2:C15"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C58:C63"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D68:D73"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="B2:B89"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="E68:E73"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Foreservation_ViewList.xlsx
+++ b/document/Foreservation_ViewList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557809A0-6CDF-48ED-A8DF-7C8A6BF282B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE69B7A-11BE-4232-976F-AAB72665268F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,7 +1172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1204,13 +1204,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1554,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF753CA-3B43-42CB-99AB-2EC6963C2F06}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1598,10 +1601,10 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>174</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1619,8 +1622,8 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="9" t="s">
@@ -1633,8 +1636,8 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="5" t="s">
         <v>299</v>
       </c>
@@ -1650,32 +1653,32 @@
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="10" t="str">
+        <f t="shared" ref="E5" si="1">D5&amp;".jsp"</f>
+        <v>NavPrgmSrch.jsp</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="5"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E5" s="5" t="str">
+      <c r="E6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>NavMonthSrch.jsp</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="5"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>NavPrgmSrch.jsp</v>
-      </c>
       <c r="F6" s="9" t="s">
         <v>298</v>
       </c>
@@ -1684,13 +1687,13 @@
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="5" t="s">
         <v>274</v>
       </c>
       <c r="E7" s="10" t="str">
-        <f t="shared" ref="E7" si="1">D7&amp;".jsp"</f>
+        <f t="shared" ref="E7" si="2">D7&amp;".jsp"</f>
         <v>NavSiteInfo.jsp</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -1701,8 +1704,8 @@
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="5" t="s">
         <v>275</v>
       </c>
@@ -1718,8 +1721,8 @@
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="5" t="s">
         <v>276</v>
       </c>
@@ -1735,8 +1738,8 @@
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="5"/>
       <c r="E10" s="10"/>
       <c r="F10" s="9" t="s">
@@ -1749,13 +1752,13 @@
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="5" t="s">
         <v>288</v>
       </c>
       <c r="E11" s="10" t="str">
-        <f t="shared" ref="E11:E16" si="2">D11&amp;".jsp"</f>
+        <f t="shared" ref="E11:E16" si="3">D11&amp;".jsp"</f>
         <v>NavMyResrv.jsp</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -1766,13 +1769,13 @@
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="5" t="s">
         <v>289</v>
       </c>
       <c r="E12" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NavJimList.jsp</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -1783,13 +1786,13 @@
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="5" t="s">
         <v>291</v>
       </c>
       <c r="E13" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NavQnaList.jsp</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -1800,13 +1803,13 @@
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="5" t="s">
         <v>292</v>
       </c>
       <c r="E14" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NavMyInfo.jsp</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -1817,13 +1820,13 @@
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="5" t="s">
         <v>293</v>
       </c>
       <c r="E15" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NavWidrw.jsp</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -1834,7 +1837,7 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="5" t="s">
         <v>304</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>302</v>
       </c>
       <c r="E16" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CheckList.jsp</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -1853,7 +1856,7 @@
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="5" t="s">
         <v>173</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>271</v>
       </c>
       <c r="E17" s="10" t="str">
-        <f t="shared" ref="E17:E89" si="3">D17&amp;".jsp"</f>
+        <f t="shared" ref="E17:E89" si="4">D17&amp;".jsp"</f>
         <v>Footer.jsp</v>
       </c>
       <c r="F17" s="9"/>
@@ -1870,15 +1873,15 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="12" t="str">
-        <f t="shared" si="3"/>
+      <c r="E18" s="13" t="str">
+        <f t="shared" si="4"/>
         <v>ForeservationInfo.jsp</v>
       </c>
       <c r="F18" s="9" t="s">
@@ -1891,10 +1894,10 @@
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="9" t="s">
         <v>269</v>
       </c>
@@ -1903,10 +1906,10 @@
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="9" t="s">
         <v>231</v>
       </c>
@@ -1915,10 +1918,10 @@
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="9" t="s">
         <v>270</v>
       </c>
@@ -1927,10 +1930,10 @@
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="9" t="s">
         <v>224</v>
       </c>
@@ -1941,10 +1944,10 @@
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="9" t="s">
         <v>170</v>
       </c>
@@ -1953,7 +1956,7 @@
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="5" t="s">
         <v>175</v>
       </c>
@@ -1961,7 +1964,7 @@
         <v>178</v>
       </c>
       <c r="E24" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SiteInfo.jsp</v>
       </c>
       <c r="F24" s="9"/>
@@ -1970,7 +1973,7 @@
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="5" t="s">
         <v>177</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>179</v>
       </c>
       <c r="E25" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>RoomInfo.jsp</v>
       </c>
       <c r="F25" s="9"/>
@@ -1987,7 +1990,7 @@
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="5" t="s">
         <v>176</v>
       </c>
@@ -1995,7 +1998,7 @@
         <v>277</v>
       </c>
       <c r="E26" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>PrgmInfo.jsp</v>
       </c>
       <c r="F26" s="9"/>
@@ -2004,14 +2007,14 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="E27" s="12" t="str">
+      <c r="E27" s="13" t="str">
         <f>D27&amp;".jsp"</f>
         <v>MyResrv.jsp</v>
       </c>
@@ -2025,10 +2028,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="3" t="s">
         <v>223</v>
       </c>
@@ -2039,10 +2042,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="3" t="s">
         <v>225</v>
       </c>
@@ -2053,10 +2056,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="3" t="s">
         <v>238</v>
       </c>
@@ -2067,14 +2070,14 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E31" s="11" t="str">
+      <c r="E31" s="12" t="str">
         <f>D31&amp;".jsp"</f>
         <v>ResrvCancle.jsp</v>
       </c>
@@ -2086,10 +2089,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="3" t="s">
         <v>242</v>
       </c>
@@ -2098,15 +2101,15 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="12"/>
+      <c r="C33" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E33" s="11" t="str">
-        <f t="shared" ref="E33:E47" si="4">D33&amp;".jsp"</f>
+      <c r="E33" s="12" t="str">
+        <f t="shared" ref="E33:E47" si="5">D33&amp;".jsp"</f>
         <v>ResrvInfo.jsp</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -2117,10 +2120,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="3" t="s">
         <v>243</v>
       </c>
@@ -2129,10 +2132,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="3" t="s">
         <v>246</v>
       </c>
@@ -2141,10 +2144,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="3" t="s">
         <v>245</v>
       </c>
@@ -2153,7 +2156,7 @@
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="11"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="1" t="s">
         <v>233</v>
       </c>
@@ -2161,7 +2164,7 @@
         <v>248</v>
       </c>
       <c r="E37" s="10" t="str">
-        <f t="shared" ref="E37" si="5">D37&amp;".jsp"</f>
+        <f t="shared" ref="E37" si="6">D37&amp;".jsp"</f>
         <v>JimList.jsp</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -2174,15 +2177,15 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="13" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E38" s="12" t="str">
-        <f t="shared" si="4"/>
+      <c r="E38" s="13" t="str">
+        <f t="shared" si="5"/>
         <v>Qnalist.jsp</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -2195,10 +2198,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="3" t="s">
         <v>251</v>
       </c>
@@ -2209,10 +2212,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="13"/>
       <c r="F40" s="3" t="s">
         <v>252</v>
       </c>
@@ -2223,15 +2226,15 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="12"/>
+      <c r="C41" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E41" s="11" t="str">
-        <f t="shared" si="4"/>
+      <c r="E41" s="12" t="str">
+        <f t="shared" si="5"/>
         <v>QnaReg.jsp</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -2242,10 +2245,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="3" t="s">
         <v>242</v>
       </c>
@@ -2254,7 +2257,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
-      <c r="B43" s="11"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
         <v>234</v>
       </c>
@@ -2262,7 +2265,7 @@
         <v>256</v>
       </c>
       <c r="E43" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>MyInfo.jsp</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -2275,15 +2278,15 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="13" t="s">
+      <c r="B44" s="12"/>
+      <c r="C44" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="E44" s="11" t="str">
-        <f t="shared" si="4"/>
+      <c r="E44" s="12" t="str">
+        <f t="shared" si="5"/>
         <v>MyInfoEdit.jsp</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -2294,10 +2297,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="3" t="s">
         <v>260</v>
       </c>
@@ -2306,10 +2309,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="3" t="s">
         <v>261</v>
       </c>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
-      <c r="B47" s="11"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="1" t="s">
         <v>235</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>294</v>
       </c>
       <c r="E47" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Widrw.jsp</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -2339,15 +2342,15 @@
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11" t="s">
+      <c r="B48" s="12"/>
+      <c r="C48" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="E48" s="12" t="str">
+        <f t="shared" si="4"/>
         <v>Login.jsp</v>
       </c>
       <c r="F48" s="9" t="s">
@@ -2358,10 +2361,10 @@
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="9" t="s">
         <v>193</v>
       </c>
@@ -2370,10 +2373,10 @@
     </row>
     <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
       <c r="F50" s="9" t="s">
         <v>194</v>
       </c>
@@ -2382,10 +2385,10 @@
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="9" t="s">
         <v>195</v>
       </c>
@@ -2394,10 +2397,10 @@
     </row>
     <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
       <c r="F52" s="9" t="s">
         <v>196</v>
       </c>
@@ -2406,15 +2409,15 @@
     </row>
     <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11" t="s">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12" t="s">
         <v>171</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E53" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Acnt_RegAgr.jsp</v>
       </c>
       <c r="F53" s="9" t="s">
@@ -2425,13 +2428,13 @@
     </row>
     <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E54" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Acnt_RegChk.jsp</v>
       </c>
       <c r="F54" s="9" t="s">
@@ -2442,13 +2445,13 @@
     </row>
     <row r="55" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="5" t="s">
         <v>199</v>
       </c>
       <c r="E55" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Acnt_RegInfo.jsp</v>
       </c>
       <c r="F55" s="9" t="s">
@@ -2459,13 +2462,13 @@
     </row>
     <row r="56" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="5" t="s">
         <v>200</v>
       </c>
       <c r="E56" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Acnt_RegCom.jsp</v>
       </c>
       <c r="F56" s="9" t="s">
@@ -2476,7 +2479,7 @@
     </row>
     <row r="57" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
-      <c r="B57" s="11"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="5" t="s">
         <v>278</v>
       </c>
@@ -2484,7 +2487,7 @@
         <v>281</v>
       </c>
       <c r="E57" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>FindID.jsp</v>
       </c>
       <c r="F57" s="9"/>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="58" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
-      <c r="B58" s="11"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="5" t="s">
         <v>279</v>
       </c>
@@ -2501,7 +2504,7 @@
         <v>282</v>
       </c>
       <c r="E58" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>FindPw.jsp</v>
       </c>
       <c r="F58" s="9"/>
@@ -2510,15 +2513,15 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="13" t="s">
+      <c r="B59" s="12"/>
+      <c r="C59" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="E59" s="13" t="str">
+        <f t="shared" si="4"/>
         <v>GnrSrch.jsp</v>
       </c>
       <c r="F59" s="3" t="s">
@@ -2531,10 +2534,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="13"/>
       <c r="F60" s="3" t="s">
         <v>183</v>
       </c>
@@ -2545,10 +2548,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="13"/>
       <c r="F61" s="3" t="s">
         <v>185</v>
       </c>
@@ -2559,10 +2562,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="13"/>
       <c r="F62" s="3" t="s">
         <v>186</v>
       </c>
@@ -2573,10 +2576,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="11"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="13"/>
       <c r="F63" s="8" t="s">
         <v>190</v>
       </c>
@@ -2587,10 +2590,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="13"/>
       <c r="F64" s="3" t="s">
         <v>184</v>
       </c>
@@ -2601,15 +2604,15 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="5"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="13" t="s">
+      <c r="B65" s="12"/>
+      <c r="C65" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E65" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="E65" s="12" t="str">
+        <f t="shared" si="4"/>
         <v>MonthSrch.jsp</v>
       </c>
       <c r="F65" s="3" t="s">
@@ -2620,10 +2623,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="5"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12"/>
       <c r="F66" s="3" t="s">
         <v>183</v>
       </c>
@@ -2632,10 +2635,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="5"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12"/>
       <c r="F67" s="3" t="s">
         <v>191</v>
       </c>
@@ -2646,15 +2649,15 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="13" t="s">
+      <c r="B68" s="12"/>
+      <c r="C68" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E68" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="E68" s="12" t="str">
+        <f t="shared" si="4"/>
         <v>GnrResrv.jsp</v>
       </c>
       <c r="F68" s="3" t="s">
@@ -2665,10 +2668,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="3" t="s">
         <v>210</v>
       </c>
@@ -2677,10 +2680,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12"/>
       <c r="F70" s="3" t="s">
         <v>211</v>
       </c>
@@ -2689,10 +2692,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="5"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="11"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
       <c r="F71" s="3" t="s">
         <v>212</v>
       </c>
@@ -2701,10 +2704,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="5"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="11"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
       <c r="F72" s="8" t="s">
         <v>213</v>
       </c>
@@ -2713,10 +2716,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="5"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12"/>
       <c r="F73" s="3" t="s">
         <v>185</v>
       </c>
@@ -2727,15 +2730,15 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="13" t="s">
+      <c r="B74" s="12"/>
+      <c r="C74" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E74" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="E74" s="12" t="str">
+        <f t="shared" si="4"/>
         <v>PrgmSrch.jsp</v>
       </c>
       <c r="F74" s="3" t="s">
@@ -2746,10 +2749,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="5"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="12"/>
       <c r="F75" s="3" t="s">
         <v>183</v>
       </c>
@@ -2758,10 +2761,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="5"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12"/>
       <c r="F76" s="3" t="s">
         <v>185</v>
       </c>
@@ -2770,10 +2773,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="11"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12"/>
       <c r="F77" s="3" t="s">
         <v>186</v>
       </c>
@@ -2782,10 +2785,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12"/>
       <c r="F78" s="8" t="s">
         <v>189</v>
       </c>
@@ -2794,15 +2797,15 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="13" t="s">
+      <c r="B79" s="12"/>
+      <c r="C79" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E79" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="E79" s="12" t="str">
+        <f t="shared" si="4"/>
         <v>PrgmResrv.jsp</v>
       </c>
       <c r="F79" s="3" t="s">
@@ -2813,10 +2816,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="11"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="12"/>
       <c r="F80" s="3" t="s">
         <v>214</v>
       </c>
@@ -2825,10 +2828,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="11"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12"/>
       <c r="F81" s="3" t="s">
         <v>215</v>
       </c>
@@ -2837,10 +2840,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="11"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12"/>
       <c r="F82" s="3" t="s">
         <v>217</v>
       </c>
@@ -2849,10 +2852,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="11"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="12"/>
       <c r="F83" s="3" t="s">
         <v>185</v>
       </c>
@@ -2863,15 +2866,15 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="5"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="13" t="s">
+      <c r="B84" s="12"/>
+      <c r="C84" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E84" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="E84" s="12" t="str">
+        <f t="shared" si="4"/>
         <v>PayInfo.jsp</v>
       </c>
       <c r="F84" s="3" t="s">
@@ -2882,10 +2885,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="5"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="11"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="12"/>
       <c r="F85" s="3" t="s">
         <v>222</v>
       </c>
@@ -2894,10 +2897,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="5"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="11"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="12"/>
       <c r="F86" s="3" t="s">
         <v>223</v>
       </c>
@@ -2906,10 +2909,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="5"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="11"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="12"/>
       <c r="F87" s="3" t="s">
         <v>224</v>
       </c>
@@ -2918,10 +2921,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="5"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="11"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="12"/>
       <c r="F88" s="3" t="s">
         <v>225</v>
       </c>
@@ -2930,7 +2933,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="5"/>
-      <c r="B89" s="11"/>
+      <c r="B89" s="12"/>
       <c r="C89" s="1" t="s">
         <v>227</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>228</v>
       </c>
       <c r="E89" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>PayCmplt.jsp</v>
       </c>
       <c r="F89" s="3" t="s">
@@ -2951,35 +2954,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="C2:C15"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D68:D73"/>
-    <mergeCell ref="C68:C73"/>
-    <mergeCell ref="D74:D78"/>
     <mergeCell ref="B2:B89"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="E41:E42"/>
@@ -2996,6 +2970,35 @@
     <mergeCell ref="E59:E64"/>
     <mergeCell ref="E65:E67"/>
     <mergeCell ref="E68:E73"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D68:D73"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="C2:C15"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="C74:C78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Foreservation_ViewList.xlsx
+++ b/document/Foreservation_ViewList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE69B7A-11BE-4232-976F-AAB72665268F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF9D95F-13D2-40FE-A369-CFA9FFF02784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="307">
   <si>
     <t>OBJECT</t>
   </si>
@@ -1077,6 +1077,13 @@
   </si>
   <si>
     <t>하단 추가항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForestEdu</t>
+  </si>
+  <si>
+    <t>하단_산림프로그램 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1172,7 +1179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1204,16 +1211,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1555,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF753CA-3B43-42CB-99AB-2EC6963C2F06}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1601,10 +1605,10 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>174</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1622,8 +1626,8 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="9" t="s">
@@ -1636,8 +1640,8 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="5" t="s">
         <v>299</v>
       </c>
@@ -1653,8 +1657,8 @@
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="5" t="s">
         <v>301</v>
       </c>
@@ -1670,12 +1674,12 @@
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E6" s="14" t="str">
+      <c r="E6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NavMonthSrch.jsp</v>
       </c>
@@ -1687,8 +1691,8 @@
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="5" t="s">
         <v>274</v>
       </c>
@@ -1704,8 +1708,8 @@
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="5" t="s">
         <v>275</v>
       </c>
@@ -1721,8 +1725,8 @@
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="5" t="s">
         <v>276</v>
       </c>
@@ -1738,8 +1742,8 @@
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="5"/>
       <c r="E10" s="10"/>
       <c r="F10" s="9" t="s">
@@ -1752,8 +1756,8 @@
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="5" t="s">
         <v>288</v>
       </c>
@@ -1769,8 +1773,8 @@
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="5" t="s">
         <v>289</v>
       </c>
@@ -1786,8 +1790,8 @@
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="5" t="s">
         <v>291</v>
       </c>
@@ -1803,8 +1807,8 @@
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="5" t="s">
         <v>292</v>
       </c>
@@ -1820,8 +1824,8 @@
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="5" t="s">
         <v>293</v>
       </c>
@@ -1837,7 +1841,7 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="5" t="s">
         <v>304</v>
       </c>
@@ -1856,7 +1860,7 @@
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="5" t="s">
         <v>173</v>
       </c>
@@ -1864,7 +1868,7 @@
         <v>271</v>
       </c>
       <c r="E17" s="10" t="str">
-        <f t="shared" ref="E17:E89" si="4">D17&amp;".jsp"</f>
+        <f t="shared" ref="E17:E90" si="4">D17&amp;".jsp"</f>
         <v>Footer.jsp</v>
       </c>
       <c r="F17" s="9"/>
@@ -1873,14 +1877,14 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="13" t="str">
+      <c r="E18" s="12" t="str">
         <f t="shared" si="4"/>
         <v>ForeservationInfo.jsp</v>
       </c>
@@ -1894,10 +1898,10 @@
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="9" t="s">
         <v>269</v>
       </c>
@@ -1906,10 +1910,10 @@
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="9" t="s">
         <v>231</v>
       </c>
@@ -1918,10 +1922,10 @@
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="9" t="s">
         <v>270</v>
       </c>
@@ -1930,10 +1934,10 @@
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="9" t="s">
         <v>224</v>
       </c>
@@ -1944,10 +1948,10 @@
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="9" t="s">
         <v>170</v>
       </c>
@@ -1956,7 +1960,7 @@
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="12"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="5" t="s">
         <v>175</v>
       </c>
@@ -1973,7 +1977,7 @@
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="5" t="s">
         <v>177</v>
       </c>
@@ -1990,7 +1994,7 @@
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="5" t="s">
         <v>176</v>
       </c>
@@ -2002,19 +2006,21 @@
         <v>PrgmInfo.jsp</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E27" s="13" t="str">
+      <c r="E27" s="12" t="str">
         <f>D27&amp;".jsp"</f>
         <v>MyResrv.jsp</v>
       </c>
@@ -2028,10 +2034,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="13"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="3" t="s">
         <v>223</v>
       </c>
@@ -2042,10 +2048,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="13"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="3" t="s">
         <v>225</v>
       </c>
@@ -2056,10 +2062,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="13"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="3" t="s">
         <v>238</v>
       </c>
@@ -2070,14 +2076,14 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E31" s="12" t="str">
+      <c r="E31" s="11" t="str">
         <f>D31&amp;".jsp"</f>
         <v>ResrvCancle.jsp</v>
       </c>
@@ -2089,10 +2095,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="3" t="s">
         <v>242</v>
       </c>
@@ -2101,14 +2107,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="11" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="E33" s="12" t="str">
+      <c r="E33" s="11" t="str">
         <f t="shared" ref="E33:E47" si="5">D33&amp;".jsp"</f>
         <v>ResrvInfo.jsp</v>
       </c>
@@ -2120,10 +2126,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="3" t="s">
         <v>243</v>
       </c>
@@ -2132,10 +2138,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="3" t="s">
         <v>246</v>
       </c>
@@ -2144,10 +2150,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="3" t="s">
         <v>245</v>
       </c>
@@ -2156,7 +2162,7 @@
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="12"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="1" t="s">
         <v>233</v>
       </c>
@@ -2177,14 +2183,14 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="11" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="E38" s="13" t="str">
+      <c r="E38" s="12" t="str">
         <f t="shared" si="5"/>
         <v>Qnalist.jsp</v>
       </c>
@@ -2198,10 +2204,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="13"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="3" t="s">
         <v>251</v>
       </c>
@@ -2212,10 +2218,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="13"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="3" t="s">
         <v>252</v>
       </c>
@@ -2226,14 +2232,14 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="11" t="s">
+      <c r="B41" s="11"/>
+      <c r="C41" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E41" s="12" t="str">
+      <c r="E41" s="11" t="str">
         <f t="shared" si="5"/>
         <v>QnaReg.jsp</v>
       </c>
@@ -2245,10 +2251,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="3" t="s">
         <v>242</v>
       </c>
@@ -2257,7 +2263,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="1" t="s">
         <v>234</v>
       </c>
@@ -2278,14 +2284,14 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="E44" s="12" t="str">
+      <c r="E44" s="11" t="str">
         <f t="shared" si="5"/>
         <v>MyInfoEdit.jsp</v>
       </c>
@@ -2297,10 +2303,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="3" t="s">
         <v>260</v>
       </c>
@@ -2309,10 +2315,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="3" t="s">
         <v>261</v>
       </c>
@@ -2321,7 +2327,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
-      <c r="B47" s="12"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="1" t="s">
         <v>235</v>
       </c>
@@ -2342,14 +2348,14 @@
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12" t="s">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="12" t="str">
+      <c r="E48" s="11" t="str">
         <f t="shared" si="4"/>
         <v>Login.jsp</v>
       </c>
@@ -2361,10 +2367,10 @@
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="9" t="s">
         <v>193</v>
       </c>
@@ -2373,10 +2379,10 @@
     </row>
     <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="9" t="s">
         <v>194</v>
       </c>
@@ -2385,10 +2391,10 @@
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="9" t="s">
         <v>195</v>
       </c>
@@ -2397,10 +2403,10 @@
     </row>
     <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="9" t="s">
         <v>196</v>
       </c>
@@ -2409,8 +2415,8 @@
     </row>
     <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12" t="s">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11" t="s">
         <v>171</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -2428,8 +2434,8 @@
     </row>
     <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
       <c r="D54" s="5" t="s">
         <v>198</v>
       </c>
@@ -2445,8 +2451,8 @@
     </row>
     <row r="55" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="5" t="s">
         <v>199</v>
       </c>
@@ -2462,8 +2468,8 @@
     </row>
     <row r="56" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="5" t="s">
         <v>200</v>
       </c>
@@ -2479,7 +2485,7 @@
     </row>
     <row r="57" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
-      <c r="B57" s="12"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="5" t="s">
         <v>278</v>
       </c>
@@ -2496,7 +2502,7 @@
     </row>
     <row r="58" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
-      <c r="B58" s="12"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="5" t="s">
         <v>279</v>
       </c>
@@ -2513,14 +2519,14 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="11" t="s">
+      <c r="B59" s="11"/>
+      <c r="C59" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="13" t="str">
+      <c r="E59" s="12" t="str">
         <f t="shared" si="4"/>
         <v>GnrSrch.jsp</v>
       </c>
@@ -2534,10 +2540,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="13"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="3" t="s">
         <v>183</v>
       </c>
@@ -2548,10 +2554,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="13"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="12"/>
       <c r="F61" s="3" t="s">
         <v>185</v>
       </c>
@@ -2562,10 +2568,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="13"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="12"/>
       <c r="F62" s="3" t="s">
         <v>186</v>
       </c>
@@ -2576,10 +2582,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="13"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="8" t="s">
         <v>190</v>
       </c>
@@ -2590,10 +2596,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="13"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="12"/>
       <c r="F64" s="3" t="s">
         <v>184</v>
       </c>
@@ -2604,14 +2610,14 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="5"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="11" t="s">
+      <c r="B65" s="11"/>
+      <c r="C65" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="E65" s="12" t="str">
+      <c r="E65" s="11" t="str">
         <f t="shared" si="4"/>
         <v>MonthSrch.jsp</v>
       </c>
@@ -2623,10 +2629,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="5"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="12"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="11"/>
       <c r="F66" s="3" t="s">
         <v>183</v>
       </c>
@@ -2635,10 +2641,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="5"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="12"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="3" t="s">
         <v>191</v>
       </c>
@@ -2649,14 +2655,14 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="11" t="s">
+      <c r="B68" s="11"/>
+      <c r="C68" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E68" s="12" t="str">
+      <c r="E68" s="11" t="str">
         <f t="shared" si="4"/>
         <v>GnrResrv.jsp</v>
       </c>
@@ -2668,10 +2674,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="12"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="11"/>
       <c r="F69" s="3" t="s">
         <v>210</v>
       </c>
@@ -2680,10 +2686,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="12"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="11"/>
       <c r="F70" s="3" t="s">
         <v>211</v>
       </c>
@@ -2692,10 +2698,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="5"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="12"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="11"/>
       <c r="F71" s="3" t="s">
         <v>212</v>
       </c>
@@ -2704,10 +2710,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="5"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="12"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="8" t="s">
         <v>213</v>
       </c>
@@ -2716,10 +2722,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="5"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="12"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="11"/>
       <c r="F73" s="3" t="s">
         <v>185</v>
       </c>
@@ -2730,11 +2736,11 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="11" t="s">
+      <c r="B74" s="11"/>
+      <c r="C74" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="13" t="s">
         <v>208</v>
       </c>
       <c r="E74" s="12" t="str">
@@ -2749,9 +2755,9 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="5"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
       <c r="E75" s="12"/>
       <c r="F75" s="3" t="s">
         <v>183</v>
@@ -2761,9 +2767,9 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="5"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
       <c r="E76" s="12"/>
       <c r="F76" s="3" t="s">
         <v>185</v>
@@ -2773,9 +2779,9 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
       <c r="E77" s="12"/>
       <c r="F77" s="3" t="s">
         <v>186</v>
@@ -2785,9 +2791,9 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
       <c r="E78" s="12"/>
       <c r="F78" s="8" t="s">
         <v>189</v>
@@ -2797,189 +2803,185 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="11" t="s">
+      <c r="B79" s="11"/>
+      <c r="C79" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E79" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>ForestEdu.jsp</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A80" s="5"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D80" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="E79" s="12" t="str">
+      <c r="E80" s="11" t="str">
         <f t="shared" si="4"/>
         <v>PrgmResrv.jsp</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A80" s="5"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="12"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="11"/>
       <c r="F81" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="12"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="11"/>
       <c r="F82" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="12"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="11"/>
       <c r="F83" s="3" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="G83" s="3"/>
-      <c r="H83" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="5"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="11" t="s">
+      <c r="B84" s="11"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A85" s="5"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D85" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E84" s="12" t="str">
+      <c r="E85" s="11" t="str">
         <f t="shared" si="4"/>
         <v>PayInfo.jsp</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A85" s="5"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="5"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="12"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="11"/>
       <c r="F86" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="5"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="12"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="11"/>
       <c r="F87" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="5"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="12"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="11"/>
       <c r="F88" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="5"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="1" t="s">
+      <c r="B89" s="11"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G89" s="3"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A90" s="5"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E89" s="5" t="str">
+      <c r="E90" s="5" t="str">
         <f t="shared" si="4"/>
         <v>PayCmplt.jsp</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F90" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="1" t="s">
+      <c r="G90" s="3"/>
+      <c r="H90" s="1" t="s">
         <v>283</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B2:B89"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="E59:E64"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="E68:E73"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D68:D73"/>
-    <mergeCell ref="C68:C73"/>
-    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="C74:C78"/>
     <mergeCell ref="C2:C15"/>
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="C27:C30"/>
@@ -2994,11 +2996,32 @@
     <mergeCell ref="C18:C23"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D68:D73"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="B2:B90"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E80:E84"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="E68:E73"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Foreservation_ViewList.xlsx
+++ b/document/Foreservation_ViewList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF9D95F-13D2-40FE-A369-CFA9FFF02784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B3E04C-61B5-4611-AA2F-D9F11DE1B8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="306">
   <si>
     <t>OBJECT</t>
   </si>
@@ -1002,10 +1002,6 @@
   </si>
   <si>
     <t>예약정보/찜목록/1:1문의/나의정보/회원탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.03.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1211,13 +1207,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1561,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF753CA-3B43-42CB-99AB-2EC6963C2F06}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1605,10 +1601,10 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>174</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1626,73 +1622,73 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="9" t="s">
         <v>230</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E4" s="10" t="str">
         <f t="shared" ref="E4:E6" si="0">D4&amp;".jsp"</f>
         <v>NavGnrSrch.jsp</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E5" s="10" t="str">
         <f t="shared" ref="E5" si="1">D5&amp;".jsp"</f>
         <v>NavPrgmSrch.jsp</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>NavMonthSrch.jsp</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="5" t="s">
         <v>274</v>
       </c>
@@ -1708,8 +1704,8 @@
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="5" t="s">
         <v>275</v>
       </c>
@@ -1725,8 +1721,8 @@
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="5" t="s">
         <v>276</v>
       </c>
@@ -1742,8 +1738,8 @@
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="5"/>
       <c r="E10" s="10"/>
       <c r="F10" s="9" t="s">
@@ -1756,27 +1752,27 @@
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E11" s="10" t="str">
         <f t="shared" ref="E11:E16" si="3">D11&amp;".jsp"</f>
         <v>NavMyResrv.jsp</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E12" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1790,10 +1786,10 @@
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E13" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1807,27 +1803,27 @@
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E14" s="10" t="str">
         <f t="shared" si="3"/>
         <v>NavMyInfo.jsp</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E15" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1841,26 +1837,26 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E16" s="10" t="str">
         <f t="shared" si="3"/>
         <v>CheckList.jsp</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="5" t="s">
         <v>173</v>
       </c>
@@ -1877,14 +1873,14 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="12" t="str">
+      <c r="E18" s="13" t="str">
         <f t="shared" si="4"/>
         <v>ForeservationInfo.jsp</v>
       </c>
@@ -1892,16 +1888,16 @@
         <v>230</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="9" t="s">
         <v>269</v>
       </c>
@@ -1910,10 +1906,10 @@
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="9" t="s">
         <v>231</v>
       </c>
@@ -1922,10 +1918,10 @@
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="9" t="s">
         <v>270</v>
       </c>
@@ -1934,10 +1930,10 @@
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="9" t="s">
         <v>224</v>
       </c>
@@ -1948,10 +1944,10 @@
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="9" t="s">
         <v>170</v>
       </c>
@@ -1960,7 +1956,7 @@
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="5" t="s">
         <v>175</v>
       </c>
@@ -1977,7 +1973,7 @@
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="5" t="s">
         <v>177</v>
       </c>
@@ -1994,7 +1990,7 @@
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="5" t="s">
         <v>176</v>
       </c>
@@ -2007,20 +2003,20 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="E27" s="12" t="str">
+      <c r="E27" s="13" t="str">
         <f>D27&amp;".jsp"</f>
         <v>MyResrv.jsp</v>
       </c>
@@ -2028,62 +2024,54 @@
         <v>237</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="3" t="s">
         <v>223</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="3" t="s">
         <v>225</v>
       </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="3" t="s">
         <v>238</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E31" s="11" t="str">
+      <c r="E31" s="12" t="str">
         <f>D31&amp;".jsp"</f>
         <v>ResrvCancle.jsp</v>
       </c>
@@ -2095,10 +2083,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="3" t="s">
         <v>242</v>
       </c>
@@ -2107,14 +2095,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="12"/>
+      <c r="C33" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E33" s="11" t="str">
+      <c r="E33" s="12" t="str">
         <f t="shared" ref="E33:E47" si="5">D33&amp;".jsp"</f>
         <v>ResrvInfo.jsp</v>
       </c>
@@ -2126,10 +2114,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="3" t="s">
         <v>243</v>
       </c>
@@ -2138,10 +2126,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="3" t="s">
         <v>246</v>
       </c>
@@ -2150,10 +2138,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="3" t="s">
         <v>245</v>
       </c>
@@ -2162,7 +2150,7 @@
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="11"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="1" t="s">
         <v>233</v>
       </c>
@@ -2177,20 +2165,18 @@
         <v>249</v>
       </c>
       <c r="G37" s="5"/>
-      <c r="H37" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="13" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="E38" s="12" t="str">
+      <c r="D38" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E38" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Qnalist.jsp</v>
       </c>
@@ -2198,48 +2184,42 @@
         <v>182</v>
       </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="3" t="s">
         <v>251</v>
       </c>
       <c r="G39" s="3"/>
-      <c r="H39" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="13"/>
       <c r="F40" s="3" t="s">
         <v>252</v>
       </c>
       <c r="G40" s="3"/>
-      <c r="H40" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="12"/>
+      <c r="C41" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E41" s="11" t="str">
+      <c r="E41" s="12" t="str">
         <f t="shared" si="5"/>
         <v>QnaReg.jsp</v>
       </c>
@@ -2251,10 +2231,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="3" t="s">
         <v>242</v>
       </c>
@@ -2263,7 +2243,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
-      <c r="B43" s="11"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
         <v>234</v>
       </c>
@@ -2278,20 +2258,18 @@
         <v>229</v>
       </c>
       <c r="G43" s="3"/>
-      <c r="H43" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="13" t="s">
+      <c r="B44" s="12"/>
+      <c r="C44" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="E44" s="11" t="str">
+      <c r="E44" s="12" t="str">
         <f t="shared" si="5"/>
         <v>MyInfoEdit.jsp</v>
       </c>
@@ -2303,10 +2281,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="3" t="s">
         <v>260</v>
       </c>
@@ -2315,10 +2293,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="3" t="s">
         <v>261</v>
       </c>
@@ -2327,12 +2305,12 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
-      <c r="B47" s="11"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E47" s="10" t="str">
         <f t="shared" si="5"/>
@@ -2342,20 +2320,18 @@
         <v>235</v>
       </c>
       <c r="G47" s="3"/>
-      <c r="H47" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11" t="s">
+      <c r="B48" s="12"/>
+      <c r="C48" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="11" t="str">
+      <c r="E48" s="12" t="str">
         <f t="shared" si="4"/>
         <v>Login.jsp</v>
       </c>
@@ -2367,10 +2343,10 @@
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="9" t="s">
         <v>193</v>
       </c>
@@ -2379,10 +2355,10 @@
     </row>
     <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
       <c r="F50" s="9" t="s">
         <v>194</v>
       </c>
@@ -2391,10 +2367,10 @@
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="9" t="s">
         <v>195</v>
       </c>
@@ -2403,10 +2379,10 @@
     </row>
     <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
       <c r="F52" s="9" t="s">
         <v>196</v>
       </c>
@@ -2415,8 +2391,8 @@
     </row>
     <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11" t="s">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12" t="s">
         <v>171</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -2434,8 +2410,8 @@
     </row>
     <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="5" t="s">
         <v>198</v>
       </c>
@@ -2451,8 +2427,8 @@
     </row>
     <row r="55" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="5" t="s">
         <v>199</v>
       </c>
@@ -2468,8 +2444,8 @@
     </row>
     <row r="56" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="5" t="s">
         <v>200</v>
       </c>
@@ -2485,7 +2461,7 @@
     </row>
     <row r="57" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
-      <c r="B57" s="11"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="5" t="s">
         <v>278</v>
       </c>
@@ -2502,7 +2478,7 @@
     </row>
     <row r="58" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
-      <c r="B58" s="11"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="5" t="s">
         <v>279</v>
       </c>
@@ -2519,14 +2495,14 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="13" t="s">
+      <c r="B59" s="12"/>
+      <c r="C59" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="12" t="str">
+      <c r="E59" s="13" t="str">
         <f t="shared" si="4"/>
         <v>GnrSrch.jsp</v>
       </c>
@@ -2534,90 +2510,78 @@
         <v>182</v>
       </c>
       <c r="G59" s="3"/>
-      <c r="H59" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="13"/>
       <c r="F60" s="3" t="s">
         <v>183</v>
       </c>
       <c r="G60" s="3"/>
-      <c r="H60" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="13"/>
       <c r="F61" s="3" t="s">
         <v>185</v>
       </c>
       <c r="G61" s="3"/>
-      <c r="H61" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="13"/>
       <c r="F62" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G62" s="3"/>
-      <c r="H62" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="13"/>
       <c r="F63" s="8" t="s">
         <v>190</v>
       </c>
       <c r="G63" s="3"/>
-      <c r="H63" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="13"/>
       <c r="F64" s="3" t="s">
         <v>184</v>
       </c>
       <c r="G64" s="3"/>
-      <c r="H64" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="5"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="13" t="s">
+      <c r="B65" s="12"/>
+      <c r="C65" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E65" s="11" t="str">
+      <c r="E65" s="13" t="str">
         <f t="shared" si="4"/>
         <v>MonthSrch.jsp</v>
       </c>
@@ -2629,10 +2593,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="5"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="13"/>
       <c r="F66" s="3" t="s">
         <v>183</v>
       </c>
@@ -2641,10 +2605,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="5"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="13"/>
       <c r="F67" s="3" t="s">
         <v>191</v>
       </c>
@@ -2655,14 +2619,14 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="13" t="s">
+      <c r="B68" s="12"/>
+      <c r="C68" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E68" s="11" t="str">
+      <c r="E68" s="12" t="str">
         <f t="shared" si="4"/>
         <v>GnrResrv.jsp</v>
       </c>
@@ -2674,10 +2638,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="3" t="s">
         <v>210</v>
       </c>
@@ -2686,10 +2650,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12"/>
       <c r="F70" s="3" t="s">
         <v>211</v>
       </c>
@@ -2698,10 +2662,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="5"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="11"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
       <c r="F71" s="3" t="s">
         <v>212</v>
       </c>
@@ -2710,10 +2674,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="5"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="11"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
       <c r="F72" s="8" t="s">
         <v>213</v>
       </c>
@@ -2722,10 +2686,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="5"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12"/>
       <c r="F73" s="3" t="s">
         <v>185</v>
       </c>
@@ -2736,14 +2700,14 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="13" t="s">
+      <c r="B74" s="12"/>
+      <c r="C74" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E74" s="12" t="str">
+      <c r="E74" s="13" t="str">
         <f t="shared" si="4"/>
         <v>PrgmSrch.jsp</v>
       </c>
@@ -2755,10 +2719,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="5"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="13"/>
       <c r="F75" s="3" t="s">
         <v>183</v>
       </c>
@@ -2767,10 +2731,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="5"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="13"/>
       <c r="F76" s="3" t="s">
         <v>185</v>
       </c>
@@ -2779,10 +2743,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="13"/>
       <c r="F77" s="3" t="s">
         <v>186</v>
       </c>
@@ -2791,10 +2755,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="13"/>
       <c r="F78" s="8" t="s">
         <v>189</v>
       </c>
@@ -2803,14 +2767,14 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
-      <c r="B79" s="11"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E79" s="5" t="str">
+        <v>304</v>
+      </c>
+      <c r="E79" s="10" t="str">
         <f t="shared" si="4"/>
         <v>ForestEdu.jsp</v>
       </c>
@@ -2820,14 +2784,14 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="13" t="s">
+      <c r="B80" s="12"/>
+      <c r="C80" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E80" s="11" t="str">
+      <c r="E80" s="12" t="str">
         <f t="shared" si="4"/>
         <v>PrgmResrv.jsp</v>
       </c>
@@ -2839,10 +2803,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="11"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12"/>
       <c r="F81" s="3" t="s">
         <v>214</v>
       </c>
@@ -2851,10 +2815,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="11"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12"/>
       <c r="F82" s="3" t="s">
         <v>215</v>
       </c>
@@ -2863,10 +2827,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="11"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="12"/>
       <c r="F83" s="3" t="s">
         <v>217</v>
       </c>
@@ -2875,10 +2839,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="5"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="11"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="12"/>
       <c r="F84" s="3" t="s">
         <v>185</v>
       </c>
@@ -2889,14 +2853,14 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="5"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="13" t="s">
+      <c r="B85" s="12"/>
+      <c r="C85" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E85" s="11" t="str">
+      <c r="E85" s="12" t="str">
         <f t="shared" si="4"/>
         <v>PayInfo.jsp</v>
       </c>
@@ -2908,10 +2872,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="5"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="11"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="12"/>
       <c r="F86" s="3" t="s">
         <v>222</v>
       </c>
@@ -2920,10 +2884,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="5"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="11"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="12"/>
       <c r="F87" s="3" t="s">
         <v>223</v>
       </c>
@@ -2932,10 +2896,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="5"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="11"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="12"/>
       <c r="F88" s="3" t="s">
         <v>224</v>
       </c>
@@ -2944,10 +2908,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="5"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="11"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="12"/>
       <c r="F89" s="3" t="s">
         <v>225</v>
       </c>
@@ -2956,7 +2920,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="5"/>
-      <c r="B90" s="11"/>
+      <c r="B90" s="12"/>
       <c r="C90" s="1" t="s">
         <v>227</v>
       </c>
@@ -2977,35 +2941,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="D85:D89"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="C2:C15"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D68:D73"/>
-    <mergeCell ref="C68:C73"/>
-    <mergeCell ref="D74:D78"/>
     <mergeCell ref="B2:B90"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="E41:E42"/>
@@ -3022,6 +2957,35 @@
     <mergeCell ref="E59:E64"/>
     <mergeCell ref="E65:E67"/>
     <mergeCell ref="E68:E73"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D68:D73"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="C2:C15"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="C74:C78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Foreservation_ViewList.xlsx
+++ b/document/Foreservation_ViewList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B3E04C-61B5-4611-AA2F-D9F11DE1B8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321488CB-241D-4E39-804A-BB222784AE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1207,13 +1207,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1557,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF753CA-3B43-42CB-99AB-2EC6963C2F06}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68:E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>174</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1622,8 +1622,8 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="9" t="s">
@@ -1636,8 +1636,8 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="5" t="s">
         <v>298</v>
       </c>
@@ -1653,8 +1653,8 @@
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="5" t="s">
         <v>300</v>
       </c>
@@ -1670,8 +1670,8 @@
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5" t="s">
         <v>299</v>
       </c>
@@ -1687,8 +1687,8 @@
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="5" t="s">
         <v>274</v>
       </c>
@@ -1704,8 +1704,8 @@
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="5" t="s">
         <v>275</v>
       </c>
@@ -1721,8 +1721,8 @@
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="5" t="s">
         <v>276</v>
       </c>
@@ -1738,8 +1738,8 @@
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="5"/>
       <c r="E10" s="10"/>
       <c r="F10" s="9" t="s">
@@ -1752,8 +1752,8 @@
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="5" t="s">
         <v>287</v>
       </c>
@@ -1769,8 +1769,8 @@
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="5" t="s">
         <v>288</v>
       </c>
@@ -1786,8 +1786,8 @@
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="5" t="s">
         <v>290</v>
       </c>
@@ -1803,8 +1803,8 @@
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="5" t="s">
         <v>291</v>
       </c>
@@ -1820,8 +1820,8 @@
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="5" t="s">
         <v>292</v>
       </c>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="5" t="s">
         <v>303</v>
       </c>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="5" t="s">
         <v>173</v>
       </c>
@@ -1873,14 +1873,14 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="13" t="str">
+      <c r="E18" s="12" t="str">
         <f t="shared" si="4"/>
         <v>ForeservationInfo.jsp</v>
       </c>
@@ -1894,10 +1894,10 @@
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="9" t="s">
         <v>269</v>
       </c>
@@ -1906,10 +1906,10 @@
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="9" t="s">
         <v>231</v>
       </c>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="9" t="s">
         <v>270</v>
       </c>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="9" t="s">
         <v>224</v>
       </c>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="9" t="s">
         <v>170</v>
       </c>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="12"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="5" t="s">
         <v>175</v>
       </c>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="5" t="s">
         <v>177</v>
       </c>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="5" t="s">
         <v>176</v>
       </c>
@@ -2009,14 +2009,14 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E27" s="13" t="str">
+      <c r="E27" s="12" t="str">
         <f>D27&amp;".jsp"</f>
         <v>MyResrv.jsp</v>
       </c>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="13"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="3" t="s">
         <v>223</v>
       </c>
@@ -2040,10 +2040,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="13"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="3" t="s">
         <v>225</v>
       </c>
@@ -2052,10 +2052,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="13"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="3" t="s">
         <v>238</v>
       </c>
@@ -2064,14 +2064,14 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E31" s="12" t="str">
+      <c r="E31" s="11" t="str">
         <f>D31&amp;".jsp"</f>
         <v>ResrvCancle.jsp</v>
       </c>
@@ -2083,10 +2083,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="3" t="s">
         <v>242</v>
       </c>
@@ -2095,14 +2095,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="11" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="E33" s="12" t="str">
+      <c r="E33" s="11" t="str">
         <f t="shared" ref="E33:E47" si="5">D33&amp;".jsp"</f>
         <v>ResrvInfo.jsp</v>
       </c>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="3" t="s">
         <v>243</v>
       </c>
@@ -2126,10 +2126,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="3" t="s">
         <v>246</v>
       </c>
@@ -2138,10 +2138,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="3" t="s">
         <v>245</v>
       </c>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="12"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="1" t="s">
         <v>233</v>
       </c>
@@ -2169,14 +2169,14 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="11" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="E38" s="13" t="str">
+      <c r="E38" s="12" t="str">
         <f t="shared" si="5"/>
         <v>Qnalist.jsp</v>
       </c>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="13"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="3" t="s">
         <v>251</v>
       </c>
@@ -2200,10 +2200,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="13"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="3" t="s">
         <v>252</v>
       </c>
@@ -2212,14 +2212,14 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="11" t="s">
+      <c r="B41" s="11"/>
+      <c r="C41" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E41" s="12" t="str">
+      <c r="E41" s="11" t="str">
         <f t="shared" si="5"/>
         <v>QnaReg.jsp</v>
       </c>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="3" t="s">
         <v>242</v>
       </c>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="1" t="s">
         <v>234</v>
       </c>
@@ -2262,14 +2262,14 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="E44" s="12" t="str">
+      <c r="E44" s="11" t="str">
         <f t="shared" si="5"/>
         <v>MyInfoEdit.jsp</v>
       </c>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="3" t="s">
         <v>260</v>
       </c>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="3" t="s">
         <v>261</v>
       </c>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
-      <c r="B47" s="12"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="1" t="s">
         <v>235</v>
       </c>
@@ -2324,14 +2324,14 @@
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12" t="s">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="12" t="str">
+      <c r="E48" s="11" t="str">
         <f t="shared" si="4"/>
         <v>Login.jsp</v>
       </c>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="9" t="s">
         <v>193</v>
       </c>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="9" t="s">
         <v>194</v>
       </c>
@@ -2367,10 +2367,10 @@
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="9" t="s">
         <v>195</v>
       </c>
@@ -2379,10 +2379,10 @@
     </row>
     <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="9" t="s">
         <v>196</v>
       </c>
@@ -2391,8 +2391,8 @@
     </row>
     <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12" t="s">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11" t="s">
         <v>171</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -2410,8 +2410,8 @@
     </row>
     <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
       <c r="D54" s="5" t="s">
         <v>198</v>
       </c>
@@ -2427,8 +2427,8 @@
     </row>
     <row r="55" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="5" t="s">
         <v>199</v>
       </c>
@@ -2444,8 +2444,8 @@
     </row>
     <row r="56" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="5" t="s">
         <v>200</v>
       </c>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="57" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
-      <c r="B57" s="12"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="5" t="s">
         <v>278</v>
       </c>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="58" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
-      <c r="B58" s="12"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="5" t="s">
         <v>279</v>
       </c>
@@ -2495,14 +2495,14 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="11" t="s">
+      <c r="B59" s="11"/>
+      <c r="C59" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="13" t="str">
+      <c r="E59" s="12" t="str">
         <f t="shared" si="4"/>
         <v>GnrSrch.jsp</v>
       </c>
@@ -2514,10 +2514,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="13"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="3" t="s">
         <v>183</v>
       </c>
@@ -2526,10 +2526,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="13"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="12"/>
       <c r="F61" s="3" t="s">
         <v>185</v>
       </c>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="13"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="12"/>
       <c r="F62" s="3" t="s">
         <v>186</v>
       </c>
@@ -2550,10 +2550,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="13"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="8" t="s">
         <v>190</v>
       </c>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="13"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="12"/>
       <c r="F64" s="3" t="s">
         <v>184</v>
       </c>
@@ -2574,14 +2574,14 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="5"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="11" t="s">
+      <c r="B65" s="11"/>
+      <c r="C65" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="E65" s="13" t="str">
+      <c r="E65" s="12" t="str">
         <f t="shared" si="4"/>
         <v>MonthSrch.jsp</v>
       </c>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="5"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="13"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="12"/>
       <c r="F66" s="3" t="s">
         <v>183</v>
       </c>
@@ -2605,10 +2605,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="5"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="13"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="12"/>
       <c r="F67" s="3" t="s">
         <v>191</v>
       </c>
@@ -2619,14 +2619,14 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="11" t="s">
+      <c r="B68" s="11"/>
+      <c r="C68" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E68" s="12" t="str">
+      <c r="E68" s="11" t="str">
         <f t="shared" si="4"/>
         <v>GnrResrv.jsp</v>
       </c>
@@ -2638,10 +2638,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="12"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="11"/>
       <c r="F69" s="3" t="s">
         <v>210</v>
       </c>
@@ -2650,10 +2650,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="12"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="11"/>
       <c r="F70" s="3" t="s">
         <v>211</v>
       </c>
@@ -2662,10 +2662,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="5"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="12"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="11"/>
       <c r="F71" s="3" t="s">
         <v>212</v>
       </c>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="5"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="12"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="8" t="s">
         <v>213</v>
       </c>
@@ -2686,10 +2686,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="5"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="12"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="11"/>
       <c r="F73" s="3" t="s">
         <v>185</v>
       </c>
@@ -2700,14 +2700,14 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="11" t="s">
+      <c r="B74" s="11"/>
+      <c r="C74" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="E74" s="13" t="str">
+      <c r="E74" s="12" t="str">
         <f t="shared" si="4"/>
         <v>PrgmSrch.jsp</v>
       </c>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="5"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="13"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="12"/>
       <c r="F75" s="3" t="s">
         <v>183</v>
       </c>
@@ -2731,10 +2731,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="5"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="13"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="12"/>
       <c r="F76" s="3" t="s">
         <v>185</v>
       </c>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="13"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="12"/>
       <c r="F77" s="3" t="s">
         <v>186</v>
       </c>
@@ -2755,10 +2755,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="13"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="12"/>
       <c r="F78" s="8" t="s">
         <v>189</v>
       </c>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
-      <c r="B79" s="12"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="1" t="s">
         <v>189</v>
       </c>
@@ -2784,14 +2784,14 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="11" t="s">
+      <c r="B80" s="11"/>
+      <c r="C80" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="E80" s="12" t="str">
+      <c r="E80" s="11" t="str">
         <f t="shared" si="4"/>
         <v>PrgmResrv.jsp</v>
       </c>
@@ -2803,10 +2803,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="12"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="11"/>
       <c r="F81" s="3" t="s">
         <v>214</v>
       </c>
@@ -2815,10 +2815,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="12"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="11"/>
       <c r="F82" s="3" t="s">
         <v>215</v>
       </c>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="12"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="11"/>
       <c r="F83" s="3" t="s">
         <v>217</v>
       </c>
@@ -2839,10 +2839,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="5"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="12"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="11"/>
       <c r="F84" s="3" t="s">
         <v>185</v>
       </c>
@@ -2853,14 +2853,14 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="5"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="11" t="s">
+      <c r="B85" s="11"/>
+      <c r="C85" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E85" s="12" t="str">
+      <c r="E85" s="11" t="str">
         <f t="shared" si="4"/>
         <v>PayInfo.jsp</v>
       </c>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="5"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="12"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="11"/>
       <c r="F86" s="3" t="s">
         <v>222</v>
       </c>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="5"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="12"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="11"/>
       <c r="F87" s="3" t="s">
         <v>223</v>
       </c>
@@ -2896,10 +2896,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="5"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="12"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="11"/>
       <c r="F88" s="3" t="s">
         <v>224</v>
       </c>
@@ -2908,10 +2908,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="5"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="12"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="11"/>
       <c r="F89" s="3" t="s">
         <v>225</v>
       </c>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="5"/>
-      <c r="B90" s="12"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="1" t="s">
         <v>227</v>
       </c>
@@ -2941,6 +2941,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="C2:C15"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D68:D73"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="D74:D78"/>
     <mergeCell ref="B2:B90"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="E41:E42"/>
@@ -2957,35 +2986,6 @@
     <mergeCell ref="E59:E64"/>
     <mergeCell ref="E65:E67"/>
     <mergeCell ref="E68:E73"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D68:D73"/>
-    <mergeCell ref="C68:C73"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="C2:C15"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="D85:D89"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="C74:C78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Foreservation_ViewList.xlsx
+++ b/document/Foreservation_ViewList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321488CB-241D-4E39-804A-BB222784AE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95669B4-E456-45E6-9E54-050572ECC603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1207,13 +1207,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1557,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF753CA-3B43-42CB-99AB-2EC6963C2F06}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68:E73"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>174</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1622,8 +1622,8 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="9" t="s">
@@ -1636,8 +1636,8 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="5" t="s">
         <v>298</v>
       </c>
@@ -1653,8 +1653,8 @@
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="5" t="s">
         <v>300</v>
       </c>
@@ -1670,8 +1670,8 @@
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="5" t="s">
         <v>299</v>
       </c>
@@ -1687,8 +1687,8 @@
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="5" t="s">
         <v>274</v>
       </c>
@@ -1704,8 +1704,8 @@
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="5" t="s">
         <v>275</v>
       </c>
@@ -1721,8 +1721,8 @@
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="5" t="s">
         <v>276</v>
       </c>
@@ -1738,8 +1738,8 @@
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="5"/>
       <c r="E10" s="10"/>
       <c r="F10" s="9" t="s">
@@ -1752,8 +1752,8 @@
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="5" t="s">
         <v>287</v>
       </c>
@@ -1769,8 +1769,8 @@
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="5" t="s">
         <v>288</v>
       </c>
@@ -1786,8 +1786,8 @@
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="5" t="s">
         <v>290</v>
       </c>
@@ -1803,8 +1803,8 @@
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="5" t="s">
         <v>291</v>
       </c>
@@ -1820,8 +1820,8 @@
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="5" t="s">
         <v>292</v>
       </c>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="5" t="s">
         <v>303</v>
       </c>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="5" t="s">
         <v>173</v>
       </c>
@@ -1873,14 +1873,14 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="12" t="str">
+      <c r="E18" s="13" t="str">
         <f t="shared" si="4"/>
         <v>ForeservationInfo.jsp</v>
       </c>
@@ -1894,10 +1894,10 @@
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="9" t="s">
         <v>269</v>
       </c>
@@ -1906,10 +1906,10 @@
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="9" t="s">
         <v>231</v>
       </c>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="9" t="s">
         <v>270</v>
       </c>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="9" t="s">
         <v>224</v>
       </c>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="9" t="s">
         <v>170</v>
       </c>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="5" t="s">
         <v>175</v>
       </c>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="5" t="s">
         <v>177</v>
       </c>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="5" t="s">
         <v>176</v>
       </c>
@@ -2009,14 +2009,14 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="E27" s="12" t="str">
+      <c r="E27" s="13" t="str">
         <f>D27&amp;".jsp"</f>
         <v>MyResrv.jsp</v>
       </c>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="3" t="s">
         <v>223</v>
       </c>
@@ -2040,10 +2040,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="3" t="s">
         <v>225</v>
       </c>
@@ -2052,10 +2052,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="3" t="s">
         <v>238</v>
       </c>
@@ -2064,14 +2064,14 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E31" s="11" t="str">
+      <c r="E31" s="12" t="str">
         <f>D31&amp;".jsp"</f>
         <v>ResrvCancle.jsp</v>
       </c>
@@ -2083,10 +2083,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="3" t="s">
         <v>242</v>
       </c>
@@ -2095,14 +2095,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="12"/>
+      <c r="C33" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E33" s="11" t="str">
+      <c r="E33" s="12" t="str">
         <f t="shared" ref="E33:E47" si="5">D33&amp;".jsp"</f>
         <v>ResrvInfo.jsp</v>
       </c>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="3" t="s">
         <v>243</v>
       </c>
@@ -2126,10 +2126,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="3" t="s">
         <v>246</v>
       </c>
@@ -2138,10 +2138,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="3" t="s">
         <v>245</v>
       </c>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="11"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="1" t="s">
         <v>233</v>
       </c>
@@ -2169,14 +2169,14 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="13" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E38" s="12" t="str">
+      <c r="E38" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Qnalist.jsp</v>
       </c>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="3" t="s">
         <v>251</v>
       </c>
@@ -2200,10 +2200,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="13"/>
       <c r="F40" s="3" t="s">
         <v>252</v>
       </c>
@@ -2212,14 +2212,14 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="12"/>
+      <c r="C41" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E41" s="11" t="str">
+      <c r="E41" s="12" t="str">
         <f t="shared" si="5"/>
         <v>QnaReg.jsp</v>
       </c>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="3" t="s">
         <v>242</v>
       </c>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
-      <c r="B43" s="11"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
         <v>234</v>
       </c>
@@ -2262,14 +2262,14 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="13" t="s">
+      <c r="B44" s="12"/>
+      <c r="C44" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="E44" s="11" t="str">
+      <c r="E44" s="12" t="str">
         <f t="shared" si="5"/>
         <v>MyInfoEdit.jsp</v>
       </c>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="3" t="s">
         <v>260</v>
       </c>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="3" t="s">
         <v>261</v>
       </c>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
-      <c r="B47" s="11"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="1" t="s">
         <v>235</v>
       </c>
@@ -2324,14 +2324,14 @@
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11" t="s">
+      <c r="B48" s="12"/>
+      <c r="C48" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="11" t="str">
+      <c r="E48" s="12" t="str">
         <f t="shared" si="4"/>
         <v>Login.jsp</v>
       </c>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="9" t="s">
         <v>193</v>
       </c>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
       <c r="F50" s="9" t="s">
         <v>194</v>
       </c>
@@ -2367,10 +2367,10 @@
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="9" t="s">
         <v>195</v>
       </c>
@@ -2379,10 +2379,10 @@
     </row>
     <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
       <c r="F52" s="9" t="s">
         <v>196</v>
       </c>
@@ -2391,8 +2391,8 @@
     </row>
     <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11" t="s">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12" t="s">
         <v>171</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -2410,8 +2410,8 @@
     </row>
     <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="5" t="s">
         <v>198</v>
       </c>
@@ -2427,8 +2427,8 @@
     </row>
     <row r="55" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="5" t="s">
         <v>199</v>
       </c>
@@ -2444,8 +2444,8 @@
     </row>
     <row r="56" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="5" t="s">
         <v>200</v>
       </c>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="57" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
-      <c r="B57" s="11"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="5" t="s">
         <v>278</v>
       </c>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="58" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
-      <c r="B58" s="11"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="5" t="s">
         <v>279</v>
       </c>
@@ -2495,14 +2495,14 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="13" t="s">
+      <c r="B59" s="12"/>
+      <c r="C59" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="12" t="str">
+      <c r="E59" s="13" t="str">
         <f t="shared" si="4"/>
         <v>GnrSrch.jsp</v>
       </c>
@@ -2514,10 +2514,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="13"/>
       <c r="F60" s="3" t="s">
         <v>183</v>
       </c>
@@ -2526,10 +2526,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="13"/>
       <c r="F61" s="3" t="s">
         <v>185</v>
       </c>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="13"/>
       <c r="F62" s="3" t="s">
         <v>186</v>
       </c>
@@ -2550,10 +2550,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="13"/>
       <c r="F63" s="8" t="s">
         <v>190</v>
       </c>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="13"/>
       <c r="F64" s="3" t="s">
         <v>184</v>
       </c>
@@ -2574,14 +2574,14 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="5"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="13" t="s">
+      <c r="B65" s="12"/>
+      <c r="C65" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E65" s="12" t="str">
+      <c r="E65" s="13" t="str">
         <f t="shared" si="4"/>
         <v>MonthSrch.jsp</v>
       </c>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="5"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="13"/>
       <c r="F66" s="3" t="s">
         <v>183</v>
       </c>
@@ -2605,10 +2605,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="5"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="13"/>
       <c r="F67" s="3" t="s">
         <v>191</v>
       </c>
@@ -2619,14 +2619,14 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="13" t="s">
+      <c r="B68" s="12"/>
+      <c r="C68" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E68" s="11" t="str">
+      <c r="E68" s="13" t="str">
         <f t="shared" si="4"/>
         <v>GnrResrv.jsp</v>
       </c>
@@ -2638,10 +2638,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="13"/>
       <c r="F69" s="3" t="s">
         <v>210</v>
       </c>
@@ -2650,10 +2650,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="13"/>
       <c r="F70" s="3" t="s">
         <v>211</v>
       </c>
@@ -2662,10 +2662,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="5"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="11"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="13"/>
       <c r="F71" s="3" t="s">
         <v>212</v>
       </c>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="5"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="11"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="13"/>
       <c r="F72" s="8" t="s">
         <v>213</v>
       </c>
@@ -2686,10 +2686,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="5"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="13"/>
       <c r="F73" s="3" t="s">
         <v>185</v>
       </c>
@@ -2700,14 +2700,14 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="13" t="s">
+      <c r="B74" s="12"/>
+      <c r="C74" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E74" s="12" t="str">
+      <c r="E74" s="13" t="str">
         <f t="shared" si="4"/>
         <v>PrgmSrch.jsp</v>
       </c>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="5"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="13"/>
       <c r="F75" s="3" t="s">
         <v>183</v>
       </c>
@@ -2731,10 +2731,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="5"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="13"/>
       <c r="F76" s="3" t="s">
         <v>185</v>
       </c>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="13"/>
       <c r="F77" s="3" t="s">
         <v>186</v>
       </c>
@@ -2755,10 +2755,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="13"/>
       <c r="F78" s="8" t="s">
         <v>189</v>
       </c>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
-      <c r="B79" s="11"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="1" t="s">
         <v>189</v>
       </c>
@@ -2784,14 +2784,14 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="13" t="s">
+      <c r="B80" s="12"/>
+      <c r="C80" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E80" s="11" t="str">
+      <c r="E80" s="12" t="str">
         <f t="shared" si="4"/>
         <v>PrgmResrv.jsp</v>
       </c>
@@ -2803,10 +2803,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="11"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12"/>
       <c r="F81" s="3" t="s">
         <v>214</v>
       </c>
@@ -2815,10 +2815,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="11"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12"/>
       <c r="F82" s="3" t="s">
         <v>215</v>
       </c>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="11"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="12"/>
       <c r="F83" s="3" t="s">
         <v>217</v>
       </c>
@@ -2839,10 +2839,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="5"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="11"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="12"/>
       <c r="F84" s="3" t="s">
         <v>185</v>
       </c>
@@ -2853,14 +2853,14 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="5"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="13" t="s">
+      <c r="B85" s="12"/>
+      <c r="C85" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E85" s="11" t="str">
+      <c r="E85" s="12" t="str">
         <f t="shared" si="4"/>
         <v>PayInfo.jsp</v>
       </c>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="5"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="11"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="12"/>
       <c r="F86" s="3" t="s">
         <v>222</v>
       </c>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="5"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="11"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="12"/>
       <c r="F87" s="3" t="s">
         <v>223</v>
       </c>
@@ -2896,10 +2896,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="5"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="11"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="12"/>
       <c r="F88" s="3" t="s">
         <v>224</v>
       </c>
@@ -2908,10 +2908,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="5"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="11"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="12"/>
       <c r="F89" s="3" t="s">
         <v>225</v>
       </c>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="5"/>
-      <c r="B90" s="11"/>
+      <c r="B90" s="12"/>
       <c r="C90" s="1" t="s">
         <v>227</v>
       </c>
@@ -2941,35 +2941,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="D85:D89"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="C2:C15"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D68:D73"/>
-    <mergeCell ref="C68:C73"/>
-    <mergeCell ref="D74:D78"/>
     <mergeCell ref="B2:B90"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="E41:E42"/>
@@ -2986,6 +2957,35 @@
     <mergeCell ref="E59:E64"/>
     <mergeCell ref="E65:E67"/>
     <mergeCell ref="E68:E73"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D68:D73"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="C2:C15"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="C74:C78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Foreservation_ViewList.xlsx
+++ b/document/Foreservation_ViewList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95669B4-E456-45E6-9E54-050572ECC603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC37904C-B45C-4D32-A780-EEB7BB9D750C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1207,13 +1207,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1557,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF753CA-3B43-42CB-99AB-2EC6963C2F06}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>174</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1622,8 +1622,8 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="9" t="s">
@@ -1636,8 +1636,8 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="5" t="s">
         <v>298</v>
       </c>
@@ -1653,8 +1653,8 @@
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="5" t="s">
         <v>300</v>
       </c>
@@ -1670,8 +1670,8 @@
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5" t="s">
         <v>299</v>
       </c>
@@ -1687,8 +1687,8 @@
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="5" t="s">
         <v>274</v>
       </c>
@@ -1704,8 +1704,8 @@
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="5" t="s">
         <v>275</v>
       </c>
@@ -1721,8 +1721,8 @@
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="5" t="s">
         <v>276</v>
       </c>
@@ -1738,8 +1738,8 @@
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="5"/>
       <c r="E10" s="10"/>
       <c r="F10" s="9" t="s">
@@ -1752,8 +1752,8 @@
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="5" t="s">
         <v>287</v>
       </c>
@@ -1769,8 +1769,8 @@
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="5" t="s">
         <v>288</v>
       </c>
@@ -1786,8 +1786,8 @@
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="5" t="s">
         <v>290</v>
       </c>
@@ -1803,8 +1803,8 @@
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="5" t="s">
         <v>291</v>
       </c>
@@ -1820,8 +1820,8 @@
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="5" t="s">
         <v>292</v>
       </c>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="5" t="s">
         <v>303</v>
       </c>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="5" t="s">
         <v>173</v>
       </c>
@@ -1873,14 +1873,14 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="13" t="str">
+      <c r="E18" s="12" t="str">
         <f t="shared" si="4"/>
         <v>ForeservationInfo.jsp</v>
       </c>
@@ -1894,10 +1894,10 @@
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="9" t="s">
         <v>269</v>
       </c>
@@ -1906,10 +1906,10 @@
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="9" t="s">
         <v>231</v>
       </c>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="9" t="s">
         <v>270</v>
       </c>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="9" t="s">
         <v>224</v>
       </c>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="9" t="s">
         <v>170</v>
       </c>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="12"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="5" t="s">
         <v>175</v>
       </c>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="5" t="s">
         <v>177</v>
       </c>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="5" t="s">
         <v>176</v>
       </c>
@@ -2009,14 +2009,14 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E27" s="13" t="str">
+      <c r="E27" s="12" t="str">
         <f>D27&amp;".jsp"</f>
         <v>MyResrv.jsp</v>
       </c>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="13"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="3" t="s">
         <v>223</v>
       </c>
@@ -2040,10 +2040,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="13"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="3" t="s">
         <v>225</v>
       </c>
@@ -2052,10 +2052,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="13"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="3" t="s">
         <v>238</v>
       </c>
@@ -2064,14 +2064,14 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E31" s="12" t="str">
+      <c r="E31" s="11" t="str">
         <f>D31&amp;".jsp"</f>
         <v>ResrvCancle.jsp</v>
       </c>
@@ -2083,10 +2083,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="3" t="s">
         <v>242</v>
       </c>
@@ -2095,14 +2095,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="11" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="E33" s="12" t="str">
+      <c r="E33" s="11" t="str">
         <f t="shared" ref="E33:E47" si="5">D33&amp;".jsp"</f>
         <v>ResrvInfo.jsp</v>
       </c>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="3" t="s">
         <v>243</v>
       </c>
@@ -2126,10 +2126,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="3" t="s">
         <v>246</v>
       </c>
@@ -2138,10 +2138,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="3" t="s">
         <v>245</v>
       </c>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="12"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="1" t="s">
         <v>233</v>
       </c>
@@ -2169,14 +2169,14 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="11" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="E38" s="13" t="str">
+      <c r="E38" s="12" t="str">
         <f t="shared" si="5"/>
         <v>Qnalist.jsp</v>
       </c>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="13"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="3" t="s">
         <v>251</v>
       </c>
@@ -2200,10 +2200,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="13"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="3" t="s">
         <v>252</v>
       </c>
@@ -2212,14 +2212,14 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="11" t="s">
+      <c r="B41" s="11"/>
+      <c r="C41" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E41" s="12" t="str">
+      <c r="E41" s="11" t="str">
         <f t="shared" si="5"/>
         <v>QnaReg.jsp</v>
       </c>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="3" t="s">
         <v>242</v>
       </c>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="1" t="s">
         <v>234</v>
       </c>
@@ -2262,14 +2262,14 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="E44" s="12" t="str">
+      <c r="E44" s="11" t="str">
         <f t="shared" si="5"/>
         <v>MyInfoEdit.jsp</v>
       </c>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="3" t="s">
         <v>260</v>
       </c>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="3" t="s">
         <v>261</v>
       </c>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
-      <c r="B47" s="12"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="1" t="s">
         <v>235</v>
       </c>
@@ -2324,14 +2324,14 @@
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12" t="s">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="12" t="str">
+      <c r="E48" s="11" t="str">
         <f t="shared" si="4"/>
         <v>Login.jsp</v>
       </c>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="9" t="s">
         <v>193</v>
       </c>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="9" t="s">
         <v>194</v>
       </c>
@@ -2367,10 +2367,10 @@
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
       <c r="F51" s="9" t="s">
         <v>195</v>
       </c>
@@ -2379,10 +2379,10 @@
     </row>
     <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="9" t="s">
         <v>196</v>
       </c>
@@ -2391,8 +2391,8 @@
     </row>
     <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12" t="s">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11" t="s">
         <v>171</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -2410,8 +2410,8 @@
     </row>
     <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
       <c r="D54" s="5" t="s">
         <v>198</v>
       </c>
@@ -2427,8 +2427,8 @@
     </row>
     <row r="55" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="5" t="s">
         <v>199</v>
       </c>
@@ -2444,8 +2444,8 @@
     </row>
     <row r="56" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="5" t="s">
         <v>200</v>
       </c>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="57" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
-      <c r="B57" s="12"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="5" t="s">
         <v>278</v>
       </c>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="58" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
-      <c r="B58" s="12"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="5" t="s">
         <v>279</v>
       </c>
@@ -2495,14 +2495,14 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="11" t="s">
+      <c r="B59" s="11"/>
+      <c r="C59" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="13" t="str">
+      <c r="E59" s="12" t="str">
         <f t="shared" si="4"/>
         <v>GnrSrch.jsp</v>
       </c>
@@ -2514,10 +2514,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="13"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="3" t="s">
         <v>183</v>
       </c>
@@ -2526,10 +2526,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="13"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="12"/>
       <c r="F61" s="3" t="s">
         <v>185</v>
       </c>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="13"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="12"/>
       <c r="F62" s="3" t="s">
         <v>186</v>
       </c>
@@ -2550,10 +2550,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="13"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="8" t="s">
         <v>190</v>
       </c>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="13"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="12"/>
       <c r="F64" s="3" t="s">
         <v>184</v>
       </c>
@@ -2574,14 +2574,14 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="5"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="11" t="s">
+      <c r="B65" s="11"/>
+      <c r="C65" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="E65" s="13" t="str">
+      <c r="E65" s="12" t="str">
         <f t="shared" si="4"/>
         <v>MonthSrch.jsp</v>
       </c>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="5"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="13"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="12"/>
       <c r="F66" s="3" t="s">
         <v>183</v>
       </c>
@@ -2605,10 +2605,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="5"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="13"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="12"/>
       <c r="F67" s="3" t="s">
         <v>191</v>
       </c>
@@ -2619,14 +2619,14 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="11" t="s">
+      <c r="B68" s="11"/>
+      <c r="C68" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E68" s="13" t="str">
+      <c r="E68" s="12" t="str">
         <f t="shared" si="4"/>
         <v>GnrResrv.jsp</v>
       </c>
@@ -2638,10 +2638,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="13"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="3" t="s">
         <v>210</v>
       </c>
@@ -2650,10 +2650,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="13"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="12"/>
       <c r="F70" s="3" t="s">
         <v>211</v>
       </c>
@@ -2662,10 +2662,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="5"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="13"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="12"/>
       <c r="F71" s="3" t="s">
         <v>212</v>
       </c>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="5"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="13"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="12"/>
       <c r="F72" s="8" t="s">
         <v>213</v>
       </c>
@@ -2686,10 +2686,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="5"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="13"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="12"/>
       <c r="F73" s="3" t="s">
         <v>185</v>
       </c>
@@ -2700,14 +2700,14 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="11" t="s">
+      <c r="B74" s="11"/>
+      <c r="C74" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="E74" s="13" t="str">
+      <c r="E74" s="12" t="str">
         <f t="shared" si="4"/>
         <v>PrgmSrch.jsp</v>
       </c>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="5"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="13"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="12"/>
       <c r="F75" s="3" t="s">
         <v>183</v>
       </c>
@@ -2731,10 +2731,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="5"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="13"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="12"/>
       <c r="F76" s="3" t="s">
         <v>185</v>
       </c>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="13"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="12"/>
       <c r="F77" s="3" t="s">
         <v>186</v>
       </c>
@@ -2755,10 +2755,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="13"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="12"/>
       <c r="F78" s="8" t="s">
         <v>189</v>
       </c>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
-      <c r="B79" s="12"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="1" t="s">
         <v>189</v>
       </c>
@@ -2784,11 +2784,11 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="11" t="s">
+      <c r="B80" s="11"/>
+      <c r="C80" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="13" t="s">
         <v>188</v>
       </c>
       <c r="E80" s="12" t="str">
@@ -2803,9 +2803,9 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
       <c r="E81" s="12"/>
       <c r="F81" s="3" t="s">
         <v>214</v>
@@ -2815,9 +2815,9 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
       <c r="E82" s="12"/>
       <c r="F82" s="3" t="s">
         <v>215</v>
@@ -2827,9 +2827,9 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
       <c r="E83" s="12"/>
       <c r="F83" s="3" t="s">
         <v>217</v>
@@ -2839,9 +2839,9 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="5"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
       <c r="E84" s="12"/>
       <c r="F84" s="3" t="s">
         <v>185</v>
@@ -2853,14 +2853,14 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="5"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="11" t="s">
+      <c r="B85" s="11"/>
+      <c r="C85" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E85" s="12" t="str">
+      <c r="E85" s="11" t="str">
         <f t="shared" si="4"/>
         <v>PayInfo.jsp</v>
       </c>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="5"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="12"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="11"/>
       <c r="F86" s="3" t="s">
         <v>222</v>
       </c>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="5"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="12"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="11"/>
       <c r="F87" s="3" t="s">
         <v>223</v>
       </c>
@@ -2896,10 +2896,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="5"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="12"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="11"/>
       <c r="F88" s="3" t="s">
         <v>224</v>
       </c>
@@ -2908,10 +2908,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="5"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="12"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="11"/>
       <c r="F89" s="3" t="s">
         <v>225</v>
       </c>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="5"/>
-      <c r="B90" s="12"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="1" t="s">
         <v>227</v>
       </c>
@@ -2941,6 +2941,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="C2:C15"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D68:D73"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="D74:D78"/>
     <mergeCell ref="B2:B90"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="E41:E42"/>
@@ -2957,35 +2986,6 @@
     <mergeCell ref="E59:E64"/>
     <mergeCell ref="E65:E67"/>
     <mergeCell ref="E68:E73"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D68:D73"/>
-    <mergeCell ref="C68:C73"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="C2:C15"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="D85:D89"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="C74:C78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Foreservation_ViewList.xlsx
+++ b/document/Foreservation_ViewList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC37904C-B45C-4D32-A780-EEB7BB9D750C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A3EF69-504F-4154-94DA-F78FA4368E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1207,13 +1207,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1557,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF753CA-3B43-42CB-99AB-2EC6963C2F06}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:E46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>174</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1622,8 +1622,8 @@
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="9" t="s">
@@ -1636,8 +1636,8 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="5" t="s">
         <v>298</v>
       </c>
@@ -1653,8 +1653,8 @@
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="5" t="s">
         <v>300</v>
       </c>
@@ -1670,8 +1670,8 @@
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="5" t="s">
         <v>299</v>
       </c>
@@ -1687,8 +1687,8 @@
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="5" t="s">
         <v>274</v>
       </c>
@@ -1704,8 +1704,8 @@
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="5" t="s">
         <v>275</v>
       </c>
@@ -1721,8 +1721,8 @@
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="5" t="s">
         <v>276</v>
       </c>
@@ -1738,8 +1738,8 @@
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="5"/>
       <c r="E10" s="10"/>
       <c r="F10" s="9" t="s">
@@ -1752,8 +1752,8 @@
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="5" t="s">
         <v>287</v>
       </c>
@@ -1769,8 +1769,8 @@
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="5" t="s">
         <v>288</v>
       </c>
@@ -1786,8 +1786,8 @@
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="5" t="s">
         <v>290</v>
       </c>
@@ -1803,8 +1803,8 @@
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="5" t="s">
         <v>291</v>
       </c>
@@ -1820,8 +1820,8 @@
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="5" t="s">
         <v>292</v>
       </c>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="5" t="s">
         <v>303</v>
       </c>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="5" t="s">
         <v>173</v>
       </c>
@@ -1873,14 +1873,14 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="12" t="str">
+      <c r="E18" s="13" t="str">
         <f t="shared" si="4"/>
         <v>ForeservationInfo.jsp</v>
       </c>
@@ -1894,10 +1894,10 @@
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="9" t="s">
         <v>269</v>
       </c>
@@ -1906,10 +1906,10 @@
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="9" t="s">
         <v>231</v>
       </c>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="9" t="s">
         <v>270</v>
       </c>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="9" t="s">
         <v>224</v>
       </c>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="9" t="s">
         <v>170</v>
       </c>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="5" t="s">
         <v>175</v>
       </c>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="5" t="s">
         <v>177</v>
       </c>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="5" t="s">
         <v>176</v>
       </c>
@@ -2009,14 +2009,14 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="E27" s="12" t="str">
+      <c r="E27" s="13" t="str">
         <f>D27&amp;".jsp"</f>
         <v>MyResrv.jsp</v>
       </c>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="3" t="s">
         <v>223</v>
       </c>
@@ -2040,10 +2040,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="3" t="s">
         <v>225</v>
       </c>
@@ -2052,10 +2052,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="3" t="s">
         <v>238</v>
       </c>
@@ -2064,14 +2064,14 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E31" s="11" t="str">
+      <c r="E31" s="12" t="str">
         <f>D31&amp;".jsp"</f>
         <v>ResrvCancle.jsp</v>
       </c>
@@ -2083,10 +2083,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="3" t="s">
         <v>242</v>
       </c>
@@ -2095,14 +2095,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="12"/>
+      <c r="C33" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E33" s="11" t="str">
+      <c r="E33" s="12" t="str">
         <f t="shared" ref="E33:E47" si="5">D33&amp;".jsp"</f>
         <v>ResrvInfo.jsp</v>
       </c>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="3" t="s">
         <v>243</v>
       </c>
@@ -2126,10 +2126,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="3" t="s">
         <v>246</v>
       </c>
@@ -2138,10 +2138,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="3" t="s">
         <v>245</v>
       </c>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="11"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="1" t="s">
         <v>233</v>
       </c>
@@ -2169,14 +2169,14 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="13" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E38" s="12" t="str">
+      <c r="E38" s="13" t="str">
         <f t="shared" si="5"/>
         <v>Qnalist.jsp</v>
       </c>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="3" t="s">
         <v>251</v>
       </c>
@@ -2200,10 +2200,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="13"/>
       <c r="F40" s="3" t="s">
         <v>252</v>
       </c>
@@ -2212,14 +2212,14 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="12"/>
+      <c r="C41" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E41" s="11" t="str">
+      <c r="E41" s="13" t="str">
         <f t="shared" si="5"/>
         <v>QnaReg.jsp</v>
       </c>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="13"/>
       <c r="F42" s="3" t="s">
         <v>242</v>
       </c>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
-      <c r="B43" s="11"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
         <v>234</v>
       </c>
@@ -2262,14 +2262,14 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="13" t="s">
+      <c r="B44" s="12"/>
+      <c r="C44" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="E44" s="11" t="str">
+      <c r="E44" s="12" t="str">
         <f t="shared" si="5"/>
         <v>MyInfoEdit.jsp</v>
       </c>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="3" t="s">
         <v>260</v>
       </c>
@@ -2293,10 +2293,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="3" t="s">
         <v>261</v>
       </c>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
-      <c r="B47" s="11"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="1" t="s">
         <v>235</v>
       </c>
@@ -2324,14 +2324,14 @@
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11" t="s">
+      <c r="B48" s="12"/>
+      <c r="C48" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E48" s="11" t="str">
+      <c r="E48" s="13" t="str">
         <f t="shared" si="4"/>
         <v>Login.jsp</v>
       </c>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="13"/>
       <c r="F49" s="9" t="s">
         <v>193</v>
       </c>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="13"/>
       <c r="F50" s="9" t="s">
         <v>194</v>
       </c>
@@ -2367,10 +2367,10 @@
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="13"/>
       <c r="F51" s="9" t="s">
         <v>195</v>
       </c>
@@ -2379,10 +2379,10 @@
     </row>
     <row r="52" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="13"/>
       <c r="F52" s="9" t="s">
         <v>196</v>
       </c>
@@ -2391,8 +2391,8 @@
     </row>
     <row r="53" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11" t="s">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12" t="s">
         <v>171</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -2410,8 +2410,8 @@
     </row>
     <row r="54" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="5" t="s">
         <v>198</v>
       </c>
@@ -2427,8 +2427,8 @@
     </row>
     <row r="55" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="5" t="s">
         <v>199</v>
       </c>
@@ -2444,8 +2444,8 @@
     </row>
     <row r="56" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="5" t="s">
         <v>200</v>
       </c>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="57" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
-      <c r="B57" s="11"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="5" t="s">
         <v>278</v>
       </c>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="58" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
-      <c r="B58" s="11"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="5" t="s">
         <v>279</v>
       </c>
@@ -2495,14 +2495,14 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="13" t="s">
+      <c r="B59" s="12"/>
+      <c r="C59" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="12" t="str">
+      <c r="E59" s="13" t="str">
         <f t="shared" si="4"/>
         <v>GnrSrch.jsp</v>
       </c>
@@ -2514,10 +2514,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="13"/>
       <c r="F60" s="3" t="s">
         <v>183</v>
       </c>
@@ -2526,10 +2526,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="13"/>
       <c r="F61" s="3" t="s">
         <v>185</v>
       </c>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="13"/>
       <c r="F62" s="3" t="s">
         <v>186</v>
       </c>
@@ -2550,10 +2550,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="13"/>
       <c r="F63" s="8" t="s">
         <v>190</v>
       </c>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="13"/>
       <c r="F64" s="3" t="s">
         <v>184</v>
       </c>
@@ -2574,14 +2574,14 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="5"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="13" t="s">
+      <c r="B65" s="12"/>
+      <c r="C65" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E65" s="12" t="str">
+      <c r="E65" s="13" t="str">
         <f t="shared" si="4"/>
         <v>MonthSrch.jsp</v>
       </c>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="5"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="13"/>
       <c r="F66" s="3" t="s">
         <v>183</v>
       </c>
@@ -2605,10 +2605,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="5"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="13"/>
       <c r="F67" s="3" t="s">
         <v>191</v>
       </c>
@@ -2619,14 +2619,14 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="13" t="s">
+      <c r="B68" s="12"/>
+      <c r="C68" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E68" s="12" t="str">
+      <c r="E68" s="13" t="str">
         <f t="shared" si="4"/>
         <v>GnrResrv.jsp</v>
       </c>
@@ -2638,10 +2638,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="13"/>
       <c r="F69" s="3" t="s">
         <v>210</v>
       </c>
@@ -2650,10 +2650,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="13"/>
       <c r="F70" s="3" t="s">
         <v>211</v>
       </c>
@@ -2662,10 +2662,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="5"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="13"/>
       <c r="F71" s="3" t="s">
         <v>212</v>
       </c>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="5"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="13"/>
       <c r="F72" s="8" t="s">
         <v>213</v>
       </c>
@@ -2686,10 +2686,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="5"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="13"/>
       <c r="F73" s="3" t="s">
         <v>185</v>
       </c>
@@ -2700,14 +2700,14 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="13" t="s">
+      <c r="B74" s="12"/>
+      <c r="C74" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E74" s="12" t="str">
+      <c r="E74" s="13" t="str">
         <f t="shared" si="4"/>
         <v>PrgmSrch.jsp</v>
       </c>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="5"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="13"/>
       <c r="F75" s="3" t="s">
         <v>183</v>
       </c>
@@ -2731,10 +2731,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="5"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="13"/>
       <c r="F76" s="3" t="s">
         <v>185</v>
       </c>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="13"/>
       <c r="F77" s="3" t="s">
         <v>186</v>
       </c>
@@ -2755,10 +2755,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="13"/>
       <c r="F78" s="8" t="s">
         <v>189</v>
       </c>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
-      <c r="B79" s="11"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="1" t="s">
         <v>189</v>
       </c>
@@ -2784,14 +2784,14 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="13" t="s">
+      <c r="B80" s="12"/>
+      <c r="C80" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E80" s="12" t="str">
+      <c r="E80" s="13" t="str">
         <f t="shared" si="4"/>
         <v>PrgmResrv.jsp</v>
       </c>
@@ -2803,10 +2803,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="13"/>
       <c r="F81" s="3" t="s">
         <v>214</v>
       </c>
@@ -2815,10 +2815,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="13"/>
       <c r="F82" s="3" t="s">
         <v>215</v>
       </c>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="13"/>
       <c r="F83" s="3" t="s">
         <v>217</v>
       </c>
@@ -2839,10 +2839,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="5"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="13"/>
       <c r="F84" s="3" t="s">
         <v>185</v>
       </c>
@@ -2853,14 +2853,14 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="5"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="13" t="s">
+      <c r="B85" s="12"/>
+      <c r="C85" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E85" s="11" t="str">
+      <c r="E85" s="12" t="str">
         <f t="shared" si="4"/>
         <v>PayInfo.jsp</v>
       </c>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="5"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="11"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="12"/>
       <c r="F86" s="3" t="s">
         <v>222</v>
       </c>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="5"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="11"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="12"/>
       <c r="F87" s="3" t="s">
         <v>223</v>
       </c>
@@ -2896,10 +2896,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="5"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="11"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="12"/>
       <c r="F88" s="3" t="s">
         <v>224</v>
       </c>
@@ -2908,10 +2908,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="5"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="11"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="12"/>
       <c r="F89" s="3" t="s">
         <v>225</v>
       </c>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="5"/>
-      <c r="B90" s="11"/>
+      <c r="B90" s="12"/>
       <c r="C90" s="1" t="s">
         <v>227</v>
       </c>
@@ -2941,35 +2941,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="D85:D89"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="C2:C15"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D68:D73"/>
-    <mergeCell ref="C68:C73"/>
-    <mergeCell ref="D74:D78"/>
     <mergeCell ref="B2:B90"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="E41:E42"/>
@@ -2986,6 +2957,35 @@
     <mergeCell ref="E59:E64"/>
     <mergeCell ref="E65:E67"/>
     <mergeCell ref="E68:E73"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D68:D73"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="C2:C15"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="C80:C84"/>
+    <mergeCell ref="C74:C78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
